--- a/DIC/ManuallyProcessed/Day3_DIC.xlsx
+++ b/DIC/ManuallyProcessed/Day3_DIC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bart076\Documents\rcsfa-RC3-BSLE-DIT-degradation\DIC\ManuallyProcessed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB66CF4-1016-4B7F-8834-7E8906CDEB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F926B11-5BE2-40D8-B692-6A25DF9350E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="Processing" sheetId="3" r:id="rId3"/>
     <sheet name="Summary" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Alteration!$A$1:$AD$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Processing!$A$66:$Q$66</definedName>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="266">
   <si>
     <t>Sample ID;Sample # In Batch;Sample Name;Port;Volume (ml);Start Time;Attempt #;Cell Temp (C);H2O (‰);Initial Baseline (ppm);Final Baseline (ppm);Peak (ppm);Integration Time (sec);Area (net);Area (net avg);DIC (uM);Status;;Baseline Std Dev;Wait Btwn Repeat (s);Wait Btwn Sample (s);Flush Volume (ml);Pre-Acid Volume (ml);Acid Volume (ml);Injection Speed (sps);End Analysis - Criteria;End Analysis - Value;Precision;Standard Curve;Gas Flowrate</t>
   </si>
@@ -941,84 +938,6 @@
     <t>0031S-1-1</t>
   </si>
   <si>
-    <t>Scott</t>
-  </si>
-  <si>
-    <t>Filtered Scott</t>
-  </si>
-  <si>
-    <t>Sequim</t>
-  </si>
-  <si>
-    <t>Filtered Sequim</t>
-  </si>
-  <si>
-    <t>BC1</t>
-  </si>
-  <si>
-    <t>BL1</t>
-  </si>
-  <si>
-    <t>FC1</t>
-  </si>
-  <si>
-    <t>SC1</t>
-  </si>
-  <si>
-    <t>FC3</t>
-  </si>
-  <si>
-    <t>BL2</t>
-  </si>
-  <si>
-    <t>FL2</t>
-  </si>
-  <si>
-    <t>SC2</t>
-  </si>
-  <si>
-    <t>SL2</t>
-  </si>
-  <si>
-    <t>BC3</t>
-  </si>
-  <si>
-    <t>BL3</t>
-  </si>
-  <si>
-    <t>FL3</t>
-  </si>
-  <si>
-    <t>SC3</t>
-  </si>
-  <si>
-    <t>SL3</t>
-  </si>
-  <si>
-    <t>FC2</t>
-  </si>
-  <si>
-    <t>BC2</t>
-  </si>
-  <si>
-    <t>bc1</t>
-  </si>
-  <si>
-    <t>bl1</t>
-  </si>
-  <si>
-    <t>fc1</t>
-  </si>
-  <si>
-    <t>fl1</t>
-  </si>
-  <si>
-    <t>sc1</t>
-  </si>
-  <si>
-    <t>sl1</t>
-  </si>
-  <si>
     <t>0001S-1-1;Single;junk;C (STD);0.800000;06/06/24  10:47:02;1;55.000300;8.506383;2.582342;3.251812;104.676100;57.997439;1100.963526;1100.963526;185.884127;Valid;;0.090000;10.000000;10.000000;0.750000;0.800000;0.800000;1500.000000;BL Diff;0.800000;0.00100+0.00000;Broken Line;250.000000</t>
   </si>
   <si>
@@ -1579,7 +1498,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="54">
+  <fills count="53">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1853,12 +1772,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -2268,7 +2181,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="346">
+  <cellXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2733,9 +2646,6 @@
     <xf numFmtId="0" fontId="19" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="168" fontId="19" fillId="45" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2867,13 +2777,6 @@
     <xf numFmtId="0" fontId="19" fillId="47" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="49" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="49" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2943,192 +2846,184 @@
     <xf numFmtId="0" fontId="19" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="19" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="19" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="23" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="19" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="19" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="49" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="19" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="19" fillId="49" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="19" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="19" fillId="49" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="49" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="50" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="50" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="49" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="49" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="23" fillId="49" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="19" fillId="49" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="49" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="49" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="49" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="49" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="49" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="22" fontId="19" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="49" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="19" fillId="51" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="51" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="19" fillId="51" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="51" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="19" fillId="52" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="52" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="51" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="51" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="23" fillId="51" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="19" fillId="51" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="51" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="51" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="51" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="51" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="19" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="19" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="23" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="19" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="23" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="19" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="50" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="50" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="22" fontId="19" fillId="50" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="50" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="51" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="51" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="50" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="50" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="23" fillId="50" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="19" fillId="50" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="50" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="50" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="50" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="50" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="50" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="50" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="19" fillId="52" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="52" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="22" fontId="19" fillId="52" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="52" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="53" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="53" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="52" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="52" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="23" fillId="52" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="19" fillId="52" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="52" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="52" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="52" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="52" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="52" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="52" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="22" fontId="19" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="53" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="53" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="23" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="19" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3522,10 +3417,10 @@
                   <c:v>918.02245000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1136.6185410000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1360.5449080000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3755,60 +3650,6 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Raw"/>
-      <sheetName val="processed"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="33">
-          <cell r="AB33">
-            <v>1.2</v>
-          </cell>
-          <cell r="AC33">
-            <v>0</v>
-          </cell>
-          <cell r="AE33">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="AB34">
-            <v>1.5</v>
-          </cell>
-          <cell r="AC34">
-            <v>0</v>
-          </cell>
-          <cell r="AE34">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="AB35">
-            <v>1.8</v>
-          </cell>
-          <cell r="AC35">
-            <v>0</v>
-          </cell>
-          <cell r="AE35">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4123,342 +3964,342 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4576,7 +4417,7 @@
         <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
         <v>99</v>
@@ -4665,7 +4506,7 @@
         <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
         <v>99</v>
@@ -4754,7 +4595,7 @@
         <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
         <v>99</v>
@@ -4843,7 +4684,7 @@
         <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
         <v>99</v>
@@ -4932,7 +4773,7 @@
         <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
         <v>99</v>
@@ -5021,7 +4862,7 @@
         <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
         <v>99</v>
@@ -5110,7 +4951,7 @@
         <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
         <v>99</v>
@@ -5199,7 +5040,7 @@
         <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
         <v>99</v>
@@ -5288,7 +5129,7 @@
         <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D10" t="s">
         <v>99</v>
@@ -5377,7 +5218,7 @@
         <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
         <v>99</v>
@@ -5460,13 +5301,13 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
         <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D12" t="s">
         <v>99</v>
@@ -5549,13 +5390,13 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s">
         <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
         <v>99</v>
@@ -5638,13 +5479,13 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s">
         <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D14" t="s">
         <v>99</v>
@@ -5727,13 +5568,13 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B15" t="s">
         <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
         <v>99</v>
@@ -5816,13 +5657,13 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s">
         <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="D16" t="s">
         <v>99</v>
@@ -5905,13 +5746,13 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
         <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="D17" t="s">
         <v>99</v>
@@ -5994,13 +5835,13 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s">
         <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="D18" t="s">
         <v>99</v>
@@ -6083,13 +5924,13 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s">
         <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="D19" t="s">
         <v>99</v>
@@ -6172,13 +6013,13 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s">
         <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="D20" t="s">
         <v>99</v>
@@ -6267,7 +6108,7 @@
         <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
         <v>107</v>
@@ -6356,7 +6197,7 @@
         <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="D22" t="s">
         <v>107</v>
@@ -6445,7 +6286,7 @@
         <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="D23" t="s">
         <v>116</v>
@@ -6534,7 +6375,7 @@
         <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
         <v>116</v>
@@ -6623,7 +6464,7 @@
         <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="D25" t="s">
         <v>118</v>
@@ -6712,7 +6553,7 @@
         <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s">
         <v>118</v>
@@ -6801,7 +6642,7 @@
         <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
         <v>120</v>
@@ -6890,7 +6731,7 @@
         <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="D28" t="s">
         <v>120</v>
@@ -6979,7 +6820,7 @@
         <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="D29" t="s">
         <v>135</v>
@@ -7068,7 +6909,7 @@
         <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="D30" t="s">
         <v>135</v>
@@ -7157,7 +6998,7 @@
         <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="D31" t="s">
         <v>138</v>
@@ -7246,7 +7087,7 @@
         <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="D32" t="s">
         <v>138</v>
@@ -7335,7 +7176,7 @@
         <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="D33" t="s">
         <v>107</v>
@@ -7424,7 +7265,7 @@
         <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="D34" t="s">
         <v>116</v>
@@ -7513,7 +7354,7 @@
         <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="D35" t="s">
         <v>118</v>
@@ -7602,7 +7443,7 @@
         <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="D36" t="s">
         <v>120</v>
@@ -7691,7 +7532,7 @@
         <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="D37" t="s">
         <v>135</v>
@@ -7780,7 +7621,7 @@
         <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="D38" t="s">
         <v>138</v>
@@ -7869,7 +7710,7 @@
         <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="D39" t="s">
         <v>107</v>
@@ -7958,7 +7799,7 @@
         <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="D40" t="s">
         <v>116</v>
@@ -8047,7 +7888,7 @@
         <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="D41" t="s">
         <v>118</v>
@@ -8136,7 +7977,7 @@
         <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="D42" t="s">
         <v>120</v>
@@ -8225,7 +8066,7 @@
         <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="D43" t="s">
         <v>135</v>
@@ -8314,7 +8155,7 @@
         <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="D44" t="s">
         <v>138</v>
@@ -8676,8 +8517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BH977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+    <sheetView tabSelected="1" topLeftCell="M30" zoomScale="74" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -8778,7 +8619,7 @@
 0.000000006536332*X5^5 + (0.824493-0.0040899*X5 + 0.000076438*X5^2 - 0.00000082467*X5^3 +
 0.0000000053875*X5^4)*X4 + (-0.00572466 + 0.00010227*X5 - 0.0000016546*X5^2)*X4^1.5 +
 0.00048314*X4^2)/1000</f>
-        <v>1.000296507212284</v>
+        <v>0.9990372375584663</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="15" t="s">
@@ -8813,8 +8654,8 @@
         <v>11</v>
       </c>
       <c r="X3" s="18">
-        <f>2024*0.1</f>
-        <v>202.4</v>
+        <f>2024*0.05</f>
+        <v>101.2</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="13" t="s">
@@ -8822,7 +8663,7 @@
       </c>
       <c r="AA3" s="19">
         <f>X3*AA2</f>
-        <v>202.46001305976628</v>
+        <v>101.1025684409168</v>
       </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -8855,8 +8696,8 @@
         <v>15</v>
       </c>
       <c r="X4" s="24">
-        <f>33.3*0.1</f>
-        <v>3.33</v>
+        <f>33.3*0.05</f>
+        <v>1.665</v>
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
@@ -9081,13 +8922,13 @@
     </row>
     <row r="9" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
         <v>99</v>
@@ -9183,13 +9024,13 @@
     </row>
     <row r="10" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
         <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
         <v>99</v>
@@ -9284,13 +9125,13 @@
     </row>
     <row r="11" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
         <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D11" t="s">
         <v>99</v>
@@ -9385,13 +9226,13 @@
     </row>
     <row r="12" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s">
         <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
         <v>99</v>
@@ -9478,13 +9319,13 @@
     </row>
     <row r="13" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s">
         <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
         <v>99</v>
@@ -9571,13 +9412,13 @@
     </row>
     <row r="14" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
         <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="D14" t="s">
         <v>99</v>
@@ -9661,13 +9502,13 @@
     </row>
     <row r="15" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s">
         <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="D15" t="s">
         <v>99</v>
@@ -9751,13 +9592,13 @@
     </row>
     <row r="16" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s">
         <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="D16" t="s">
         <v>99</v>
@@ -9841,13 +9682,13 @@
     </row>
     <row r="17" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B17" t="s">
         <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="D17" t="s">
         <v>99</v>
@@ -10197,15 +10038,15 @@
       </c>
       <c r="Y25" s="64">
         <f>SLOPE(AB33:AB35,AE33:AE35)</f>
-        <v>-4.9018409081390117E-4</v>
+        <v>1.355797820290063E-3</v>
       </c>
       <c r="Z25" s="65">
         <f>INTERCEPT(AB33:AB35,AE33:AE35)</f>
-        <v>1.65</v>
+        <v>-4.3433865916519876E-2</v>
       </c>
       <c r="AA25" s="66">
         <f>RSQ(AB33:AB35,AE33:AE35)</f>
-        <v>0.75000000000000011</v>
+        <v>0.99995163997633474</v>
       </c>
       <c r="AB25" s="29"/>
       <c r="AC25" s="29"/>
@@ -10330,11 +10171,11 @@
       </c>
       <c r="Y29" s="65">
         <f>Y25-Y22</f>
-        <v>-1.8420435094561802E-3</v>
+        <v>3.9384016477840306E-6</v>
       </c>
       <c r="Z29" s="77">
         <f>Z25-Z22</f>
-        <v>1.6886256716830603</v>
+        <v>-4.8081942334594618E-3</v>
       </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="29"/>
@@ -10694,8 +10535,8 @@
         <v>1.5</v>
       </c>
       <c r="Y34" s="87">
-        <f>W37</f>
-        <v>0</v>
+        <f>W34</f>
+        <v>1136.6185410000001</v>
       </c>
       <c r="Z34" s="93">
         <f>STDEV(W38:W40)</f>
@@ -10712,15 +10553,15 @@
       </c>
       <c r="AD34" s="90">
         <f>Y34</f>
-        <v>0</v>
+        <v>1136.6185410000001</v>
       </c>
       <c r="AE34" s="90">
         <f>Y34</f>
-        <v>0</v>
+        <v>1136.6185410000001</v>
       </c>
       <c r="AF34" s="91">
         <f>AC34-AE34</f>
-        <v>1138.3849503333333</v>
+        <v>1.7664093333332858</v>
       </c>
       <c r="AH34" s="29"/>
       <c r="AI34" s="29"/>
@@ -10813,8 +10654,8 @@
         <v>1.8</v>
       </c>
       <c r="Y35" s="87">
-        <f>W39</f>
-        <v>0</v>
+        <f>W35</f>
+        <v>1360.5449080000001</v>
       </c>
       <c r="Z35" s="95">
         <f>STDEV(W41:W42)</f>
@@ -10831,15 +10672,15 @@
       </c>
       <c r="AD35" s="97">
         <f>Y35</f>
-        <v>0</v>
+        <v>1360.5449080000001</v>
       </c>
       <c r="AE35" s="97">
         <f>Y35</f>
-        <v>0</v>
+        <v>1360.5449080000001</v>
       </c>
       <c r="AF35" s="98">
         <f>AC35-AE35</f>
-        <v>1359.9565399999999</v>
+        <v>-0.5883680000001732</v>
       </c>
       <c r="AH35" s="29"/>
       <c r="AI35" s="29"/>
@@ -12304,133 +12145,133 @@
       <c r="AQ65" s="1"/>
     </row>
     <row r="66" spans="1:43" s="126" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A66" s="241" t="s">
+      <c r="A66" s="237" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="241" t="s">
+      <c r="B66" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="241" t="s">
+      <c r="C66" s="237" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="241" t="s">
+      <c r="D66" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="241" t="s">
+      <c r="E66" s="237" t="s">
         <v>27</v>
       </c>
-      <c r="F66" s="241" t="s">
+      <c r="F66" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="G66" s="241" t="s">
+      <c r="G66" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="H66" s="241" t="s">
+      <c r="H66" s="237" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="241" t="s">
+      <c r="I66" s="237" t="s">
         <v>31</v>
       </c>
-      <c r="J66" s="241" t="s">
+      <c r="J66" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="K66" s="241" t="s">
+      <c r="K66" s="237" t="s">
         <v>33</v>
       </c>
-      <c r="L66" s="241" t="s">
+      <c r="L66" s="237" t="s">
         <v>34</v>
       </c>
-      <c r="M66" s="241" t="s">
+      <c r="M66" s="237" t="s">
         <v>35</v>
       </c>
-      <c r="N66" s="241" t="s">
+      <c r="N66" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="O66" s="241" t="s">
+      <c r="O66" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="P66" s="241" t="s">
+      <c r="P66" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="Q66" s="241" t="s">
+      <c r="Q66" s="237" t="s">
         <v>39</v>
       </c>
-      <c r="R66" s="242" t="s">
+      <c r="R66" s="238" t="s">
         <v>40</v>
       </c>
-      <c r="S66" s="242" t="s">
+      <c r="S66" s="238" t="s">
         <v>41</v>
       </c>
-      <c r="T66" s="243" t="s">
+      <c r="T66" s="239" t="s">
         <v>42</v>
       </c>
-      <c r="U66" s="243" t="s">
+      <c r="U66" s="239" t="s">
         <v>43</v>
       </c>
-      <c r="V66" s="243" t="s">
+      <c r="V66" s="239" t="s">
         <v>27</v>
       </c>
-      <c r="W66" s="244" t="s">
+      <c r="W66" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="X66" s="245" t="s">
+      <c r="X66" s="241" t="s">
         <v>68</v>
       </c>
-      <c r="Y66" s="246" t="s">
+      <c r="Y66" s="242" t="s">
         <v>69</v>
       </c>
-      <c r="Z66" s="247" t="s">
+      <c r="Z66" s="243" t="s">
         <v>70</v>
       </c>
-      <c r="AA66" s="244" t="s">
+      <c r="AA66" s="240" t="s">
         <v>71</v>
       </c>
-      <c r="AB66" s="244" t="s">
+      <c r="AB66" s="240" t="s">
         <v>72</v>
       </c>
-      <c r="AC66" s="248" t="s">
+      <c r="AC66" s="244" t="s">
         <v>73</v>
       </c>
-      <c r="AD66" s="243" t="s">
+      <c r="AD66" s="239" t="s">
         <v>74</v>
       </c>
-      <c r="AE66" s="244" t="s">
+      <c r="AE66" s="240" t="s">
         <v>75</v>
       </c>
-      <c r="AF66" s="243" t="s">
+      <c r="AF66" s="239" t="s">
         <v>76</v>
       </c>
-      <c r="AG66" s="243" t="s">
+      <c r="AG66" s="239" t="s">
         <v>77</v>
       </c>
-      <c r="AH66" s="243" t="s">
+      <c r="AH66" s="239" t="s">
         <v>78</v>
       </c>
-      <c r="AI66" s="243" t="s">
+      <c r="AI66" s="239" t="s">
         <v>79</v>
       </c>
-      <c r="AJ66" s="244" t="s">
+      <c r="AJ66" s="240" t="s">
         <v>80</v>
       </c>
-      <c r="AK66" s="249" t="s">
+      <c r="AK66" s="245" t="s">
         <v>81</v>
       </c>
-      <c r="AL66" s="243" t="s">
+      <c r="AL66" s="239" t="s">
         <v>82</v>
       </c>
-      <c r="AM66" s="244" t="s">
+      <c r="AM66" s="240" t="s">
         <v>83</v>
       </c>
-      <c r="AN66" s="249" t="s">
+      <c r="AN66" s="245" t="s">
         <v>84</v>
       </c>
-      <c r="AO66" s="243" t="s">
+      <c r="AO66" s="239" t="s">
         <v>82</v>
       </c>
-      <c r="AP66" s="243" t="s">
+      <c r="AP66" s="239" t="s">
         <v>43</v>
       </c>
-      <c r="AQ66" s="250"/>
+      <c r="AQ66" s="246"/>
     </row>
     <row r="67" spans="1:43" s="132" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="127" t="s">
@@ -12440,7 +12281,7 @@
         <v>98</v>
       </c>
       <c r="C67" s="127" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="D67" s="127" t="s">
         <v>107</v>
@@ -12514,15 +12355,15 @@
       </c>
       <c r="Y67" s="134">
         <f>($Y$22+$Y$29*(S67-$X$22)/$X$29)*W67+($Z$22+$Z$29*(S67-$X$22)/$X$29)</f>
-        <v>2.3193432302869863</v>
+        <v>2.6757008141005034</v>
       </c>
       <c r="Z67" s="135">
         <f t="shared" ref="Z67:Z72" si="33">Y67*$AA$3</f>
-        <v>469.57426069398377</v>
+        <v>270.52022468501292</v>
       </c>
       <c r="AA67" s="136">
         <f t="shared" ref="AA67:AA72" si="34">Z67/V67</f>
-        <v>313.04950712932254</v>
+        <v>180.34681645667527</v>
       </c>
       <c r="AB67" s="137">
         <v>22</v>
@@ -12539,7 +12380,7 @@
       </c>
       <c r="AE67" s="140">
         <f t="shared" ref="AE67:AE72" si="36">AA67/AD67</f>
-        <v>313.35475304373512</v>
+        <v>180.52266764841019</v>
       </c>
       <c r="AF67" s="141">
         <v>0</v>
@@ -12553,28 +12394,28 @@
       </c>
       <c r="AI67" s="140">
         <f>AH67*AE67</f>
-        <v>313.35475304373512</v>
+        <v>180.52266764841019</v>
       </c>
       <c r="AJ67" s="136">
         <f>AVERAGE(AI67:AI70)</f>
-        <v>249.93153013634955</v>
+        <v>186.82675992447702</v>
       </c>
       <c r="AK67" s="136">
         <f>STDEV(AI67:AI70)</f>
-        <v>74.672813071038263</v>
+        <v>6.4784521727113598</v>
       </c>
       <c r="AL67" s="144"/>
       <c r="AM67" s="145">
         <f>AVERAGE(AE67:AE70)</f>
-        <v>249.93153013634955</v>
+        <v>186.82675992447702</v>
       </c>
       <c r="AN67" s="144">
         <f>STDEV(AE67:AE70)</f>
-        <v>74.672813071038263</v>
+        <v>6.4784521727113598</v>
       </c>
       <c r="AO67" s="144"/>
       <c r="AP67" s="145" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="AQ67" s="144"/>
     </row>
@@ -12586,7 +12427,7 @@
         <v>98</v>
       </c>
       <c r="C68" s="127" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="D68" s="127" t="s">
         <v>107</v>
@@ -12660,15 +12501,15 @@
       </c>
       <c r="Y68" s="134">
         <f t="shared" ref="Y68:Y72" si="43">($Y$22+$Y$29*(S68-$X$22)/$X$29)*W68+($Z$22+$Z$29*(S68-$X$22)/$X$29)</f>
-        <v>2.2843329402114465</v>
+        <v>2.7040543371464452</v>
       </c>
       <c r="Z68" s="135">
         <f t="shared" si="33"/>
-        <v>462.48607690806375</v>
+        <v>273.38683868930639</v>
       </c>
       <c r="AA68" s="136">
         <f t="shared" si="34"/>
-        <v>308.32405127204248</v>
+        <v>182.2578924595376</v>
       </c>
       <c r="AB68" s="137">
         <v>22</v>
@@ -12682,7 +12523,7 @@
       </c>
       <c r="AE68" s="140">
         <f t="shared" si="36"/>
-        <v>308.62468952517042</v>
+        <v>182.43560708861619</v>
       </c>
       <c r="AF68" s="141">
         <v>0</v>
@@ -12696,7 +12537,7 @@
       </c>
       <c r="AI68" s="140">
         <f t="shared" ref="AI68:AI72" si="44">AH68*AE68</f>
-        <v>308.62468952517042</v>
+        <v>182.43560708861619</v>
       </c>
       <c r="AJ68" s="136"/>
       <c r="AK68" s="136"/>
@@ -12715,7 +12556,7 @@
         <v>98</v>
       </c>
       <c r="C69" s="127" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="D69" s="127" t="s">
         <v>107</v>
@@ -12789,15 +12630,15 @@
       </c>
       <c r="Y69" s="134">
         <f t="shared" si="43"/>
-        <v>1.6203013031195828</v>
+        <v>2.8157717665949886</v>
       </c>
       <c r="Z69" s="135">
         <f t="shared" si="33"/>
-        <v>328.04622299034708</v>
+        <v>284.68175774617106</v>
       </c>
       <c r="AA69" s="136">
         <f t="shared" si="34"/>
-        <v>218.69748199356471</v>
+        <v>189.78783849744738</v>
       </c>
       <c r="AB69" s="137">
         <v>22</v>
@@ -12811,7 +12652,7 @@
       </c>
       <c r="AE69" s="140">
         <f t="shared" si="36"/>
-        <v>218.91072785835783</v>
+        <v>189.97289536860421</v>
       </c>
       <c r="AF69" s="141">
         <v>0</v>
@@ -12825,7 +12666,7 @@
       </c>
       <c r="AI69" s="140">
         <f t="shared" si="44"/>
-        <v>218.91072785835783</v>
+        <v>189.97289536860421</v>
       </c>
       <c r="AJ69" s="145"/>
       <c r="AK69" s="144"/>
@@ -12844,7 +12685,7 @@
         <v>98</v>
       </c>
       <c r="C70" s="127" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="D70" s="127" t="s">
         <v>107</v>
@@ -12918,15 +12759,15 @@
       </c>
       <c r="Y70" s="134">
         <f t="shared" si="43"/>
-        <v>1.1756486284453462</v>
+        <v>2.8810325001538959</v>
       </c>
       <c r="Z70" s="135">
         <f t="shared" si="33"/>
-        <v>238.02183666874112</v>
+        <v>291.27978552731491</v>
       </c>
       <c r="AA70" s="136">
         <f t="shared" si="34"/>
-        <v>158.68122444582741</v>
+        <v>194.18652368487662</v>
       </c>
       <c r="AB70" s="137">
         <v>22</v>
@@ -12940,7 +12781,7 @@
       </c>
       <c r="AE70" s="140">
         <f t="shared" si="36"/>
-        <v>158.83595011813478</v>
+        <v>194.37586959227747</v>
       </c>
       <c r="AF70" s="141">
         <v>0</v>
@@ -12954,14 +12795,14 @@
       </c>
       <c r="AI70" s="140">
         <f t="shared" si="44"/>
-        <v>158.83595011813478</v>
-      </c>
-      <c r="AJ70" s="272"/>
+        <v>194.37586959227747</v>
+      </c>
+      <c r="AJ70" s="264"/>
       <c r="AM70" s="145"/>
       <c r="AN70" s="144"/>
       <c r="AQ70" s="144"/>
     </row>
-    <row r="71" spans="1:43" s="251" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:43" s="247" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="146" t="s">
         <v>110</v>
       </c>
@@ -12969,7 +12810,7 @@
         <v>98</v>
       </c>
       <c r="C71" s="146" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="D71" s="146" t="s">
         <v>116</v>
@@ -13013,96 +12854,96 @@
       <c r="Q71" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="R71" s="252">
+      <c r="R71" s="248">
         <f t="shared" si="31"/>
         <v>45449</v>
       </c>
-      <c r="S71" s="253">
+      <c r="S71" s="249">
         <f t="shared" si="38"/>
         <v>0.57653935185226146</v>
       </c>
-      <c r="T71" s="254">
+      <c r="T71" s="250">
         <f t="shared" si="39"/>
         <v>45449.576539351852</v>
       </c>
-      <c r="U71" s="251" t="str">
+      <c r="U71" s="247" t="str">
         <f t="shared" si="40"/>
         <v>DIT_03_BL1-1</v>
       </c>
-      <c r="V71" s="251">
+      <c r="V71" s="247">
         <f t="shared" si="41"/>
         <v>1.5</v>
       </c>
-      <c r="W71" s="251">
+      <c r="W71" s="247">
         <f t="shared" si="42"/>
         <v>2314.6332309999998</v>
       </c>
-      <c r="X71" s="255">
+      <c r="X71" s="251">
         <f t="shared" si="32"/>
         <v>3.0904330623466993</v>
       </c>
-      <c r="Y71" s="256">
+      <c r="Y71" s="252">
         <f t="shared" si="43"/>
-        <v>2.4753579589098886</v>
-      </c>
-      <c r="Z71" s="257">
+        <v>3.0914620201337417</v>
+      </c>
+      <c r="Z71" s="253">
         <f t="shared" si="33"/>
-        <v>501.16100468849248</v>
-      </c>
-      <c r="AA71" s="258">
+        <v>312.55475047306652</v>
+      </c>
+      <c r="AA71" s="254">
         <f t="shared" si="34"/>
-        <v>334.10733645899501</v>
-      </c>
-      <c r="AB71" s="259">
+        <v>208.36983364871102</v>
+      </c>
+      <c r="AB71" s="255">
         <v>22</v>
       </c>
-      <c r="AC71" s="260">
+      <c r="AC71" s="256">
         <v>1.65</v>
       </c>
-      <c r="AD71" s="261">
+      <c r="AD71" s="257">
         <f t="shared" si="35"/>
         <v>0.9990258775032208</v>
       </c>
-      <c r="AE71" s="262">
+      <c r="AE71" s="258">
         <f t="shared" si="36"/>
-        <v>334.43311528025748</v>
-      </c>
-      <c r="AF71" s="263">
+        <v>208.57300930930015</v>
+      </c>
+      <c r="AF71" s="259">
         <v>0</v>
       </c>
-      <c r="AG71" s="264">
+      <c r="AG71" s="260">
         <v>250</v>
       </c>
-      <c r="AH71" s="265">
+      <c r="AH71" s="261">
         <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="AI71" s="262">
+      <c r="AI71" s="258">
         <f t="shared" si="44"/>
-        <v>334.43311528025748</v>
-      </c>
-      <c r="AJ71" s="266">
+        <v>208.57300930930015</v>
+      </c>
+      <c r="AJ71" s="262">
         <f>AVERAGE(AI71:AI74)</f>
-        <v>256.91603660339791</v>
-      </c>
-      <c r="AK71" s="267">
+        <v>218.53934009605439</v>
+      </c>
+      <c r="AK71" s="263">
         <f>STDEV(AI71:AI74)</f>
-        <v>91.296232971333211</v>
-      </c>
-      <c r="AL71" s="267"/>
-      <c r="AM71" s="266">
+        <v>11.613935507499416</v>
+      </c>
+      <c r="AL71" s="263"/>
+      <c r="AM71" s="262">
         <f>AVERAGE(AE71:AE74)</f>
-        <v>256.91603660339791</v>
-      </c>
-      <c r="AN71" s="273">
+        <v>218.53934009605439</v>
+      </c>
+      <c r="AN71" s="265">
         <f>STDEV(AE71:AE74)</f>
-        <v>91.296232971333211</v>
-      </c>
-      <c r="AO71" s="267"/>
-      <c r="AP71" s="266" t="s">
-        <v>287</v>
-      </c>
-      <c r="AQ71" s="267"/>
+        <v>11.613935507499416</v>
+      </c>
+      <c r="AO71" s="263"/>
+      <c r="AP71" s="262" t="s">
+        <v>261</v>
+      </c>
+      <c r="AQ71" s="263"/>
     </row>
     <row r="72" spans="1:43" s="151" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="146" t="s">
@@ -13112,7 +12953,7 @@
         <v>98</v>
       </c>
       <c r="C72" s="146" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="D72" s="146" t="s">
         <v>116</v>
@@ -13186,15 +13027,15 @@
       </c>
       <c r="Y72" s="153">
         <f t="shared" si="43"/>
-        <v>2.4226261289165527</v>
+        <v>3.118866876264025</v>
       </c>
       <c r="Z72" s="154">
         <f t="shared" si="33"/>
-        <v>490.4849176993763</v>
+        <v>315.32545181559198</v>
       </c>
       <c r="AA72" s="155">
         <f t="shared" si="34"/>
-        <v>326.98994513291751</v>
+        <v>210.21696787706131</v>
       </c>
       <c r="AB72" s="156">
         <v>22</v>
@@ -13208,7 +13049,7 @@
       </c>
       <c r="AE72" s="159">
         <f t="shared" si="36"/>
-        <v>327.30878398278861</v>
+        <v>210.42194462713863</v>
       </c>
       <c r="AF72" s="160">
         <v>0</v>
@@ -13222,7 +13063,7 @@
       </c>
       <c r="AI72" s="159">
         <f t="shared" si="44"/>
-        <v>327.30878398278861</v>
+        <v>210.42194462713863</v>
       </c>
       <c r="AJ72" s="163"/>
       <c r="AK72" s="164"/>
@@ -13233,7 +13074,7 @@
       <c r="AP72" s="163"/>
       <c r="AQ72" s="164"/>
     </row>
-    <row r="73" spans="1:43" s="251" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:43" s="247" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="146" t="s">
         <v>137</v>
       </c>
@@ -13241,7 +13082,7 @@
         <v>98</v>
       </c>
       <c r="C73" s="146" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="D73" s="146" t="s">
         <v>116</v>
@@ -13285,87 +13126,87 @@
       <c r="Q73" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="R73" s="252">
+      <c r="R73" s="248">
         <f t="shared" ref="R73:R90" si="45">INT(T73)</f>
         <v>45449</v>
       </c>
-      <c r="S73" s="253">
+      <c r="S73" s="249">
         <f t="shared" ref="S73:S90" si="46">T73-R73</f>
         <v>0.61129629629431292</v>
       </c>
-      <c r="T73" s="254">
+      <c r="T73" s="250">
         <f t="shared" ref="T73:T90" si="47">F73</f>
         <v>45449.611296296294</v>
       </c>
-      <c r="U73" s="251" t="str">
+      <c r="U73" s="247" t="str">
         <f t="shared" ref="U73:U90" si="48">C73</f>
         <v>DIT_03_BL2</v>
       </c>
-      <c r="V73" s="251">
+      <c r="V73" s="247">
         <f t="shared" ref="V73:V90" si="49">E73</f>
         <v>1.5</v>
       </c>
-      <c r="W73" s="251">
+      <c r="W73" s="247">
         <f t="shared" ref="W73:W90" si="50">N73</f>
         <v>2454.1785850000001</v>
       </c>
-      <c r="X73" s="255">
+      <c r="X73" s="251">
         <f t="shared" ref="X73:X90" si="51">($Y$22*W73)+$Z$22</f>
         <v>3.2790787634793706</v>
       </c>
-      <c r="Y73" s="256">
+      <c r="Y73" s="252">
         <f t="shared" ref="Y73:Y90" si="52">($Y$22+$Y$29*(S73-$X$22)/$X$29)*W73+($Z$22+$Z$29*(S73-$X$22)/$X$29)</f>
-        <v>1.6457268119393085</v>
-      </c>
-      <c r="Z73" s="257">
+        <v>3.2818801540553237</v>
+      </c>
+      <c r="Z73" s="253">
         <f t="shared" ref="Z73:Z90" si="53">Y73*$AA$3</f>
-        <v>333.19387183803991</v>
-      </c>
-      <c r="AA73" s="258">
+        <v>331.80651289026491</v>
+      </c>
+      <c r="AA73" s="254">
         <f t="shared" ref="AA73:AA90" si="54">Z73/V73</f>
-        <v>222.1292478920266</v>
-      </c>
-      <c r="AB73" s="259">
+        <v>221.20434192684328</v>
+      </c>
+      <c r="AB73" s="255">
         <v>22</v>
       </c>
-      <c r="AC73" s="260">
+      <c r="AC73" s="256">
         <v>1.65</v>
       </c>
-      <c r="AD73" s="261">
+      <c r="AD73" s="257">
         <f t="shared" ref="AD73:AD90" si="55">(999.842594 + 0.06793952*AB73 - 0.00909529*AB73^2 + 0.0001001685*AB73^3 -0.000001120083*AB73^4 +
 0.000000006536332*AB73^5 + (0.824493-0.0040899*AB73 + 0.000076438*AB73^2 - 0.00000082467*AB73^3 +
 0.0000000053875*AB73^4)*AC73 + (-0.00572466 + 0.00010227*AB73 - 0.0000016546*AB73^2)*AC73^1.5 +
 0.00048314*AC73^2)/1000</f>
         <v>0.9990258775032208</v>
       </c>
-      <c r="AE73" s="262">
+      <c r="AE73" s="258">
         <f t="shared" ref="AE73:AE90" si="56">AA73/AD73</f>
-        <v>222.34583997681327</v>
-      </c>
-      <c r="AF73" s="263">
+        <v>221.4200321614093</v>
+      </c>
+      <c r="AF73" s="259">
         <v>0</v>
       </c>
-      <c r="AG73" s="264">
+      <c r="AG73" s="260">
         <v>250</v>
       </c>
-      <c r="AH73" s="265">
+      <c r="AH73" s="261">
         <f t="shared" ref="AH73:AH90" si="57">1+(AF73/1000/AG73)</f>
         <v>1</v>
       </c>
-      <c r="AI73" s="262">
+      <c r="AI73" s="258">
         <f t="shared" ref="AI73:AI90" si="58">AH73*AE73</f>
-        <v>222.34583997681327</v>
-      </c>
-      <c r="AJ73" s="266"/>
-      <c r="AK73" s="267"/>
-      <c r="AL73" s="267"/>
-      <c r="AM73" s="266"/>
-      <c r="AN73" s="267"/>
-      <c r="AO73" s="267"/>
-      <c r="AP73" s="266"/>
-      <c r="AQ73" s="267"/>
-    </row>
-    <row r="74" spans="1:43" s="251" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>221.4200321614093</v>
+      </c>
+      <c r="AJ73" s="262"/>
+      <c r="AK73" s="263"/>
+      <c r="AL73" s="263"/>
+      <c r="AM73" s="262"/>
+      <c r="AN73" s="263"/>
+      <c r="AO73" s="263"/>
+      <c r="AP73" s="262"/>
+      <c r="AQ73" s="263"/>
+    </row>
+    <row r="74" spans="1:43" s="247" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="146" t="s">
         <v>144</v>
       </c>
@@ -13373,7 +13214,7 @@
         <v>98</v>
       </c>
       <c r="C74" s="146" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="D74" s="146" t="s">
         <v>116</v>
@@ -13417,82 +13258,82 @@
       <c r="Q74" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="R74" s="252">
+      <c r="R74" s="248">
         <f t="shared" si="45"/>
         <v>45449</v>
       </c>
-      <c r="S74" s="253">
+      <c r="S74" s="249">
         <f t="shared" si="46"/>
         <v>0.63207175926072523</v>
       </c>
-      <c r="T74" s="254">
+      <c r="T74" s="250">
         <f t="shared" si="47"/>
         <v>45449.632071759261</v>
       </c>
-      <c r="U74" s="251" t="str">
+      <c r="U74" s="247" t="str">
         <f t="shared" si="48"/>
         <v>DIT_03_BL3</v>
       </c>
-      <c r="V74" s="251">
+      <c r="V74" s="247">
         <f t="shared" si="49"/>
         <v>1.5</v>
       </c>
-      <c r="W74" s="251">
+      <c r="W74" s="247">
         <f t="shared" si="50"/>
         <v>2588.2525690000002</v>
       </c>
-      <c r="X74" s="255">
+      <c r="X74" s="251">
         <f t="shared" si="51"/>
         <v>3.4603279415446648</v>
       </c>
-      <c r="Y74" s="256">
+      <c r="Y74" s="252">
         <f t="shared" si="52"/>
-        <v>1.0627027826217352</v>
-      </c>
-      <c r="Z74" s="257">
+        <v>3.4645214881596686</v>
+      </c>
+      <c r="Z74" s="253">
         <f t="shared" si="53"/>
-        <v>215.1548192482465</v>
-      </c>
-      <c r="AA74" s="258">
+        <v>350.27202087168979</v>
+      </c>
+      <c r="AA74" s="254">
         <f t="shared" si="54"/>
-        <v>143.43654616549767</v>
-      </c>
-      <c r="AB74" s="259">
+        <v>233.51468058112653</v>
+      </c>
+      <c r="AB74" s="255">
         <v>22</v>
       </c>
-      <c r="AC74" s="260">
+      <c r="AC74" s="256">
         <v>1.65</v>
       </c>
-      <c r="AD74" s="261">
+      <c r="AD74" s="257">
         <f t="shared" si="55"/>
         <v>0.9990258775032208</v>
       </c>
-      <c r="AE74" s="262">
+      <c r="AE74" s="258">
         <f t="shared" si="56"/>
-        <v>143.57640717373235</v>
-      </c>
-      <c r="AF74" s="263">
+        <v>233.74237428636945</v>
+      </c>
+      <c r="AF74" s="259">
         <v>0</v>
       </c>
-      <c r="AG74" s="264">
+      <c r="AG74" s="260">
         <v>250</v>
       </c>
-      <c r="AH74" s="265">
+      <c r="AH74" s="261">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AI74" s="262">
+      <c r="AI74" s="258">
         <f t="shared" si="58"/>
-        <v>143.57640717373235</v>
-      </c>
-      <c r="AJ74" s="266"/>
-      <c r="AK74" s="267"/>
-      <c r="AL74" s="267"/>
-      <c r="AM74" s="266"/>
-      <c r="AN74" s="267"/>
-      <c r="AO74" s="267"/>
-      <c r="AP74" s="266"/>
-      <c r="AQ74" s="267"/>
+        <v>233.74237428636945</v>
+      </c>
+      <c r="AJ74" s="262"/>
+      <c r="AK74" s="263"/>
+      <c r="AL74" s="263"/>
+      <c r="AM74" s="262"/>
+      <c r="AN74" s="263"/>
+      <c r="AO74" s="263"/>
+      <c r="AP74" s="262"/>
+      <c r="AQ74" s="263"/>
     </row>
     <row r="75" spans="1:43" s="170" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="165" t="s">
@@ -13502,7 +13343,7 @@
         <v>98</v>
       </c>
       <c r="C75" s="165" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="D75" s="165" t="s">
         <v>118</v>
@@ -13576,15 +13417,15 @@
       </c>
       <c r="Y75" s="172">
         <f t="shared" si="52"/>
-        <v>1.8792955809411565</v>
+        <v>2.3487554600102407</v>
       </c>
       <c r="Z75" s="173">
         <f t="shared" si="53"/>
-        <v>380.48220786050757</v>
+        <v>237.46520964666237</v>
       </c>
       <c r="AA75" s="174">
         <f t="shared" si="54"/>
-        <v>253.65480524033839</v>
+        <v>158.31013976444157</v>
       </c>
       <c r="AB75" s="175">
         <v>22</v>
@@ -13598,7 +13439,7 @@
       </c>
       <c r="AE75" s="178">
         <f t="shared" si="56"/>
-        <v>254.22094589222996</v>
+        <v>158.66347746542607</v>
       </c>
       <c r="AF75" s="179">
         <v>0</v>
@@ -13612,32 +13453,32 @@
       </c>
       <c r="AI75" s="178">
         <f t="shared" si="58"/>
-        <v>254.22094589222996</v>
+        <v>158.66347746542607</v>
       </c>
       <c r="AJ75" s="182">
         <f>AVERAGE(AI75:AI78)</f>
-        <v>210.23802751809927</v>
+        <v>167.22869133390037</v>
       </c>
       <c r="AK75" s="183">
         <f>STDEV(AI75:AI78)</f>
-        <v>52.738333674374921</v>
+        <v>9.2379220567050684</v>
       </c>
       <c r="AL75" s="183"/>
       <c r="AM75" s="182">
         <f>AVERAGE(AE75:AE78)</f>
-        <v>210.23802751809927</v>
+        <v>167.22869133390037</v>
       </c>
       <c r="AN75" s="183">
         <f>STDEV(AE75:AE78)</f>
-        <v>52.738333674374921</v>
+        <v>9.2379220567050684</v>
       </c>
       <c r="AO75" s="183"/>
       <c r="AP75" s="182" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="AQ75" s="183"/>
     </row>
-    <row r="76" spans="1:43" s="188" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:43" s="187" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="165" t="s">
         <v>115</v>
       </c>
@@ -13645,7 +13486,7 @@
         <v>98</v>
       </c>
       <c r="C76" s="165" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="D76" s="165" t="s">
         <v>118</v>
@@ -13689,82 +13530,82 @@
       <c r="Q76" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="R76" s="185">
+      <c r="R76" s="184">
         <f t="shared" si="45"/>
         <v>45449</v>
       </c>
-      <c r="S76" s="186">
+      <c r="S76" s="185">
         <f t="shared" si="46"/>
         <v>0.58560185185342561</v>
       </c>
-      <c r="T76" s="187">
+      <c r="T76" s="186">
         <f t="shared" si="47"/>
         <v>45449.585601851853</v>
       </c>
-      <c r="U76" s="188" t="str">
+      <c r="U76" s="187" t="str">
         <f t="shared" si="48"/>
         <v>DIT_03_FC1-2</v>
       </c>
-      <c r="V76" s="188">
+      <c r="V76" s="187">
         <f t="shared" si="49"/>
         <v>1.5</v>
       </c>
-      <c r="W76" s="188">
+      <c r="W76" s="187">
         <f t="shared" si="50"/>
         <v>1778.861832</v>
       </c>
-      <c r="X76" s="189">
+      <c r="X76" s="188">
         <f t="shared" si="51"/>
         <v>2.3661454503693991</v>
       </c>
-      <c r="Y76" s="190">
+      <c r="Y76" s="189">
         <f t="shared" si="52"/>
-        <v>1.8468989572985552</v>
-      </c>
-      <c r="Z76" s="191">
+        <v>2.3668639981491655</v>
+      </c>
+      <c r="Z76" s="190">
         <f t="shared" si="53"/>
-        <v>373.9231870147342</v>
-      </c>
-      <c r="AA76" s="192">
+        <v>239.29602936321797</v>
+      </c>
+      <c r="AA76" s="191">
         <f t="shared" si="54"/>
-        <v>249.28212467648947</v>
-      </c>
-      <c r="AB76" s="193">
+        <v>159.53068624214532</v>
+      </c>
+      <c r="AB76" s="192">
         <v>22</v>
       </c>
-      <c r="AC76" s="194">
+      <c r="AC76" s="193">
         <v>0</v>
       </c>
-      <c r="AD76" s="195">
+      <c r="AD76" s="194">
         <f t="shared" si="55"/>
         <v>0.9977730369545097</v>
       </c>
-      <c r="AE76" s="196">
+      <c r="AE76" s="195">
         <f t="shared" si="56"/>
-        <v>249.83850579623822</v>
-      </c>
-      <c r="AF76" s="197">
+        <v>159.88674812167591</v>
+      </c>
+      <c r="AF76" s="196">
         <v>0</v>
       </c>
-      <c r="AG76" s="198">
+      <c r="AG76" s="197">
         <v>250</v>
       </c>
-      <c r="AH76" s="199">
+      <c r="AH76" s="198">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AI76" s="196">
+      <c r="AI76" s="195">
         <f t="shared" si="58"/>
-        <v>249.83850579623822</v>
-      </c>
-      <c r="AJ76" s="200"/>
-      <c r="AK76" s="201"/>
-      <c r="AL76" s="201"/>
-      <c r="AM76" s="200"/>
-      <c r="AN76" s="201"/>
-      <c r="AO76" s="201"/>
-      <c r="AP76" s="200"/>
-      <c r="AQ76" s="201"/>
+        <v>159.88674812167591</v>
+      </c>
+      <c r="AJ76" s="199"/>
+      <c r="AK76" s="200"/>
+      <c r="AL76" s="200"/>
+      <c r="AM76" s="199"/>
+      <c r="AN76" s="200"/>
+      <c r="AO76" s="200"/>
+      <c r="AP76" s="199"/>
+      <c r="AQ76" s="200"/>
     </row>
     <row r="77" spans="1:43" s="170" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="165" t="s">
@@ -13774,7 +13615,7 @@
         <v>98</v>
       </c>
       <c r="C77" s="165" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="D77" s="165" t="s">
         <v>118</v>
@@ -13848,15 +13689,15 @@
       </c>
       <c r="Y77" s="172">
         <f t="shared" si="52"/>
-        <v>1.4371497342689676</v>
+        <v>2.6089270068673436</v>
       </c>
       <c r="Z77" s="173">
         <f t="shared" si="53"/>
-        <v>290.96535396893483</v>
+        <v>263.76922126916179</v>
       </c>
       <c r="AA77" s="174">
         <f t="shared" si="54"/>
-        <v>193.97690264595656</v>
+        <v>175.84614751277454</v>
       </c>
       <c r="AB77" s="175">
         <v>22</v>
@@ -13870,7 +13711,7 @@
       </c>
       <c r="AE77" s="178">
         <f t="shared" si="56"/>
-        <v>194.40984618909914</v>
+        <v>176.23862441653822</v>
       </c>
       <c r="AF77" s="179">
         <v>0</v>
@@ -13884,7 +13725,7 @@
       </c>
       <c r="AI77" s="178">
         <f t="shared" si="58"/>
-        <v>194.40984618909914</v>
+        <v>176.23862441653822</v>
       </c>
       <c r="AJ77" s="182"/>
       <c r="AK77" s="183"/>
@@ -13903,7 +13744,7 @@
         <v>98</v>
       </c>
       <c r="C78" s="165" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="D78" s="165" t="s">
         <v>118</v>
@@ -13977,15 +13818,15 @@
       </c>
       <c r="Y78" s="172">
         <f t="shared" si="52"/>
-        <v>1.0532858273264583</v>
+        <v>2.5776517753075514</v>
       </c>
       <c r="Z78" s="173">
         <f t="shared" si="53"/>
-        <v>213.24826235618147</v>
+        <v>260.60721502988241</v>
       </c>
       <c r="AA78" s="174">
         <f t="shared" si="54"/>
-        <v>142.1655082374543</v>
+        <v>173.73814335325494</v>
       </c>
       <c r="AB78" s="175">
         <v>22</v>
@@ -13999,7 +13840,7 @@
       </c>
       <c r="AE78" s="178">
         <f t="shared" si="56"/>
-        <v>142.48281219482973</v>
+        <v>174.12591533196138</v>
       </c>
       <c r="AF78" s="179">
         <v>0</v>
@@ -14013,7 +13854,7 @@
       </c>
       <c r="AI78" s="178">
         <f t="shared" si="58"/>
-        <v>142.48281219482973</v>
+        <v>174.12591533196138</v>
       </c>
       <c r="AJ78" s="182"/>
       <c r="AK78" s="183"/>
@@ -14024,1601 +13865,1601 @@
       <c r="AP78" s="182"/>
       <c r="AQ78" s="183"/>
     </row>
-    <row r="79" spans="1:43" s="279" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="274" t="s">
+    <row r="79" spans="1:43" s="271" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="266" t="s">
         <v>117</v>
       </c>
-      <c r="B79" s="274" t="s">
+      <c r="B79" s="266" t="s">
         <v>98</v>
       </c>
-      <c r="C79" s="274" t="s">
-        <v>268</v>
-      </c>
-      <c r="D79" s="274" t="s">
+      <c r="C79" s="266" t="s">
+        <v>242</v>
+      </c>
+      <c r="D79" s="266" t="s">
         <v>120</v>
       </c>
-      <c r="E79" s="274">
+      <c r="E79" s="266">
         <v>1.5</v>
       </c>
-      <c r="F79" s="275">
+      <c r="F79" s="267">
         <v>45449.589062500003</v>
       </c>
-      <c r="G79" s="274">
+      <c r="G79" s="266">
         <v>1</v>
       </c>
-      <c r="H79" s="274">
+      <c r="H79" s="266">
         <v>55.000300000000003</v>
       </c>
-      <c r="I79" s="274">
+      <c r="I79" s="266">
         <v>8.2852479999999993</v>
       </c>
-      <c r="J79" s="274">
+      <c r="J79" s="266">
         <v>1.8058110000000001</v>
       </c>
-      <c r="K79" s="274">
+      <c r="K79" s="266">
         <v>2.5659179999999999</v>
       </c>
-      <c r="L79" s="274">
+      <c r="L79" s="266">
         <v>117.4376</v>
       </c>
-      <c r="M79" s="274">
+      <c r="M79" s="266">
         <v>64.997448000000006</v>
       </c>
-      <c r="N79" s="274">
+      <c r="N79" s="266">
         <v>1632.3005459999999</v>
       </c>
-      <c r="O79" s="274">
+      <c r="O79" s="266">
         <v>1632.3005459999999</v>
       </c>
-      <c r="P79" s="274">
+      <c r="P79" s="266">
         <v>146.17728299999999</v>
       </c>
-      <c r="Q79" s="274" t="s">
+      <c r="Q79" s="266" t="s">
         <v>100</v>
       </c>
-      <c r="R79" s="276">
+      <c r="R79" s="268">
         <f t="shared" si="45"/>
         <v>45449</v>
       </c>
-      <c r="S79" s="277">
+      <c r="S79" s="269">
         <f t="shared" si="46"/>
         <v>0.58906250000291038</v>
       </c>
-      <c r="T79" s="278">
+      <c r="T79" s="270">
         <f t="shared" si="47"/>
         <v>45449.589062500003</v>
       </c>
-      <c r="U79" s="279" t="str">
+      <c r="U79" s="271" t="str">
         <f t="shared" si="48"/>
         <v>DIT_03_FL1-1</v>
       </c>
-      <c r="V79" s="279">
+      <c r="V79" s="271">
         <f t="shared" si="49"/>
         <v>1.5</v>
       </c>
-      <c r="W79" s="279">
+      <c r="W79" s="271">
         <f t="shared" si="50"/>
         <v>1632.3005459999999</v>
       </c>
-      <c r="X79" s="280">
+      <c r="X79" s="272">
         <f t="shared" si="51"/>
         <v>2.1680151954819742</v>
       </c>
-      <c r="Y79" s="281">
+      <c r="Y79" s="273">
         <f t="shared" si="52"/>
-        <v>1.6926947443114821</v>
-      </c>
-      <c r="Z79" s="282">
+        <v>2.1685995313584931</v>
+      </c>
+      <c r="Z79" s="274">
         <f t="shared" si="53"/>
-        <v>342.70300003950041</v>
-      </c>
-      <c r="AA79" s="283">
+        <v>219.25098254011215</v>
+      </c>
+      <c r="AA79" s="275">
         <f t="shared" si="54"/>
-        <v>228.46866669300027</v>
-      </c>
-      <c r="AB79" s="284">
+        <v>146.1673216934081</v>
+      </c>
+      <c r="AB79" s="276">
         <v>22</v>
       </c>
-      <c r="AC79" s="285">
+      <c r="AC79" s="277">
         <v>0</v>
       </c>
-      <c r="AD79" s="286">
+      <c r="AD79" s="278">
         <f t="shared" si="55"/>
         <v>0.9977730369545097</v>
       </c>
-      <c r="AE79" s="287">
+      <c r="AE79" s="279">
         <f t="shared" si="56"/>
-        <v>228.97859355906465</v>
-      </c>
-      <c r="AF79" s="288">
+        <v>146.49355743221204</v>
+      </c>
+      <c r="AF79" s="280">
         <v>0</v>
       </c>
-      <c r="AG79" s="289">
+      <c r="AG79" s="281">
         <v>250</v>
       </c>
-      <c r="AH79" s="290">
+      <c r="AH79" s="282">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AI79" s="287">
+      <c r="AI79" s="279">
         <f t="shared" si="58"/>
-        <v>228.97859355906465</v>
-      </c>
-      <c r="AJ79" s="291">
+        <v>146.49355743221204</v>
+      </c>
+      <c r="AJ79" s="283">
         <f>AVERAGE(AI79:AI82)</f>
-        <v>193.52672133739145</v>
-      </c>
-      <c r="AK79" s="292">
+        <v>148.12450986729584</v>
+      </c>
+      <c r="AK79" s="284">
         <f>STDEV(AI79:AI82)</f>
-        <v>41.739984414412135</v>
-      </c>
-      <c r="AL79" s="292"/>
-      <c r="AM79" s="291">
+        <v>1.7518833604662676</v>
+      </c>
+      <c r="AL79" s="284"/>
+      <c r="AM79" s="283">
         <f>AVERAGE(AE79:AE82)</f>
-        <v>193.52672133739145</v>
-      </c>
-      <c r="AN79" s="292">
+        <v>148.12450986729584</v>
+      </c>
+      <c r="AN79" s="284">
         <f>STDEV(AE79:AE82)</f>
-        <v>41.739984414412135</v>
-      </c>
-      <c r="AO79" s="292"/>
-      <c r="AP79" s="291" t="s">
-        <v>291</v>
-      </c>
-      <c r="AQ79" s="292"/>
-    </row>
-    <row r="80" spans="1:43" s="296" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="274" t="s">
+        <v>1.7518833604662676</v>
+      </c>
+      <c r="AO79" s="284"/>
+      <c r="AP79" s="283" t="s">
+        <v>265</v>
+      </c>
+      <c r="AQ79" s="284"/>
+    </row>
+    <row r="80" spans="1:43" s="288" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="266" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="274" t="s">
+      <c r="B80" s="266" t="s">
         <v>98</v>
       </c>
-      <c r="C80" s="274" t="s">
-        <v>269</v>
-      </c>
-      <c r="D80" s="274" t="s">
+      <c r="C80" s="266" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80" s="266" t="s">
         <v>120</v>
       </c>
-      <c r="E80" s="274">
+      <c r="E80" s="266">
         <v>1.5</v>
       </c>
-      <c r="F80" s="275">
+      <c r="F80" s="267">
         <v>45449.591840277775</v>
       </c>
-      <c r="G80" s="274">
+      <c r="G80" s="266">
         <v>1</v>
       </c>
-      <c r="H80" s="274">
+      <c r="H80" s="266">
         <v>55.000300000000003</v>
       </c>
-      <c r="I80" s="274">
+      <c r="I80" s="266">
         <v>8.3594439999999999</v>
       </c>
-      <c r="J80" s="274">
+      <c r="J80" s="266">
         <v>1.8464739999999999</v>
       </c>
-      <c r="K80" s="274">
+      <c r="K80" s="266">
         <v>2.565115</v>
       </c>
-      <c r="L80" s="274">
+      <c r="L80" s="266">
         <v>119.41522999999999</v>
       </c>
-      <c r="M80" s="274">
+      <c r="M80" s="266">
         <v>64.997444000000002</v>
       </c>
-      <c r="N80" s="274">
+      <c r="N80" s="266">
         <v>1645.0223269999999</v>
       </c>
-      <c r="O80" s="274">
+      <c r="O80" s="266">
         <v>1645.0223269999999</v>
       </c>
-      <c r="P80" s="274">
+      <c r="P80" s="266">
         <v>147.338268</v>
       </c>
-      <c r="Q80" s="274" t="s">
+      <c r="Q80" s="266" t="s">
         <v>100</v>
       </c>
-      <c r="R80" s="293">
+      <c r="R80" s="285">
         <f t="shared" si="45"/>
         <v>45449</v>
       </c>
-      <c r="S80" s="294">
+      <c r="S80" s="286">
         <f t="shared" si="46"/>
         <v>0.59184027777519077</v>
       </c>
-      <c r="T80" s="295">
+      <c r="T80" s="287">
         <f t="shared" si="47"/>
         <v>45449.591840277775</v>
       </c>
-      <c r="U80" s="296" t="str">
+      <c r="U80" s="288" t="str">
         <f t="shared" si="48"/>
         <v>DIT_03_FL1-2</v>
       </c>
-      <c r="V80" s="296">
+      <c r="V80" s="288">
         <f t="shared" si="49"/>
         <v>1.5</v>
       </c>
-      <c r="W80" s="296">
+      <c r="W80" s="288">
         <f t="shared" si="50"/>
         <v>1645.0223269999999</v>
       </c>
-      <c r="X80" s="297">
+      <c r="X80" s="289">
         <f t="shared" si="51"/>
         <v>2.1852132549487284</v>
       </c>
-      <c r="Y80" s="298">
+      <c r="Y80" s="290">
         <f t="shared" si="52"/>
-        <v>1.6652163080750015</v>
-      </c>
-      <c r="Z80" s="299">
+        <v>2.185860767819106</v>
+      </c>
+      <c r="Z80" s="291">
         <f t="shared" si="53"/>
-        <v>337.13971548020061</v>
-      </c>
-      <c r="AA80" s="300">
+        <v>220.99613788074612</v>
+      </c>
+      <c r="AA80" s="292">
         <f t="shared" si="54"/>
-        <v>224.75981032013374</v>
-      </c>
-      <c r="AB80" s="301">
+        <v>147.33075858716407</v>
+      </c>
+      <c r="AB80" s="293">
         <v>22</v>
       </c>
-      <c r="AC80" s="302">
+      <c r="AC80" s="294">
         <v>0</v>
       </c>
-      <c r="AD80" s="303">
+      <c r="AD80" s="295">
         <f t="shared" si="55"/>
         <v>0.9977730369545097</v>
       </c>
-      <c r="AE80" s="304">
+      <c r="AE80" s="296">
         <f t="shared" si="56"/>
-        <v>225.2614592654912</v>
-      </c>
-      <c r="AF80" s="305">
+        <v>147.65959103972173</v>
+      </c>
+      <c r="AF80" s="297">
         <v>0</v>
       </c>
-      <c r="AG80" s="306">
+      <c r="AG80" s="298">
         <v>250</v>
       </c>
-      <c r="AH80" s="307">
+      <c r="AH80" s="299">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AI80" s="304">
+      <c r="AI80" s="296">
         <f t="shared" si="58"/>
-        <v>225.2614592654912</v>
-      </c>
-      <c r="AJ80" s="308">
-        <f t="shared" ref="AJ71:AJ90" si="59">AI80</f>
-        <v>225.2614592654912</v>
-      </c>
-      <c r="AK80" s="309"/>
-      <c r="AL80" s="309"/>
-      <c r="AM80" s="308"/>
-      <c r="AN80" s="309"/>
-      <c r="AO80" s="309"/>
-      <c r="AP80" s="308"/>
-      <c r="AQ80" s="309"/>
-    </row>
-    <row r="81" spans="1:43" s="279" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="274" t="s">
+        <v>147.65959103972173</v>
+      </c>
+      <c r="AJ80" s="300">
+        <f t="shared" ref="AJ80:AJ82" si="59">AI80</f>
+        <v>147.65959103972173</v>
+      </c>
+      <c r="AK80" s="301"/>
+      <c r="AL80" s="301"/>
+      <c r="AM80" s="300"/>
+      <c r="AN80" s="301"/>
+      <c r="AO80" s="301"/>
+      <c r="AP80" s="300"/>
+      <c r="AQ80" s="301"/>
+    </row>
+    <row r="81" spans="1:43" s="271" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="266" t="s">
         <v>140</v>
       </c>
-      <c r="B81" s="274" t="s">
+      <c r="B81" s="266" t="s">
         <v>98</v>
       </c>
-      <c r="C81" s="274" t="s">
-        <v>277</v>
-      </c>
-      <c r="D81" s="274" t="s">
+      <c r="C81" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="D81" s="266" t="s">
         <v>120</v>
       </c>
-      <c r="E81" s="274">
+      <c r="E81" s="266">
         <v>1.5</v>
       </c>
-      <c r="F81" s="275">
+      <c r="F81" s="267">
         <v>45449.61822916667</v>
       </c>
-      <c r="G81" s="274">
+      <c r="G81" s="266">
         <v>1</v>
       </c>
-      <c r="H81" s="274">
+      <c r="H81" s="266">
         <v>55.000999999999998</v>
       </c>
-      <c r="I81" s="274">
+      <c r="I81" s="266">
         <v>8.1600490000000008</v>
       </c>
-      <c r="J81" s="274">
+      <c r="J81" s="266">
         <v>1.817326</v>
       </c>
-      <c r="K81" s="274">
+      <c r="K81" s="266">
         <v>2.527021</v>
       </c>
-      <c r="L81" s="274">
+      <c r="L81" s="266">
         <v>116.20728</v>
       </c>
-      <c r="M81" s="274">
+      <c r="M81" s="266">
         <v>65.997127000000006</v>
       </c>
-      <c r="N81" s="274">
+      <c r="N81" s="266">
         <v>1645.52577</v>
       </c>
-      <c r="O81" s="274">
+      <c r="O81" s="266">
         <v>1645.52577</v>
       </c>
-      <c r="P81" s="274">
+      <c r="P81" s="266">
         <v>147.38421199999999</v>
       </c>
-      <c r="Q81" s="274" t="s">
+      <c r="Q81" s="266" t="s">
         <v>100</v>
       </c>
-      <c r="R81" s="276">
+      <c r="R81" s="268">
         <f t="shared" si="45"/>
         <v>45449</v>
       </c>
-      <c r="S81" s="277">
+      <c r="S81" s="269">
         <f t="shared" si="46"/>
         <v>0.61822916667006211</v>
       </c>
-      <c r="T81" s="278">
+      <c r="T81" s="270">
         <f t="shared" si="47"/>
         <v>45449.61822916667</v>
       </c>
-      <c r="U81" s="279" t="str">
+      <c r="U81" s="271" t="str">
         <f t="shared" si="48"/>
         <v>DIT_03_FL2</v>
       </c>
-      <c r="V81" s="279">
+      <c r="V81" s="271">
         <f t="shared" si="49"/>
         <v>1.5</v>
       </c>
-      <c r="W81" s="279">
+      <c r="W81" s="271">
         <f t="shared" si="50"/>
         <v>1645.52577</v>
       </c>
-      <c r="X81" s="280">
+      <c r="X81" s="272">
         <f t="shared" si="51"/>
         <v>2.1858938391100282</v>
       </c>
-      <c r="Y81" s="281">
+      <c r="Y81" s="273">
         <f t="shared" si="52"/>
-        <v>1.3211506293579349</v>
-      </c>
-      <c r="Z81" s="282">
+        <v>2.1869711717554434</v>
+      </c>
+      <c r="Z81" s="274">
         <f t="shared" si="53"/>
-        <v>267.48017367372597</v>
-      </c>
-      <c r="AA81" s="283">
+        <v>221.10840257071672</v>
+      </c>
+      <c r="AA81" s="275">
         <f t="shared" si="54"/>
-        <v>178.32011578248398</v>
-      </c>
-      <c r="AB81" s="284">
+        <v>147.40560171381114</v>
+      </c>
+      <c r="AB81" s="276">
         <v>22</v>
       </c>
-      <c r="AC81" s="285">
+      <c r="AC81" s="277">
         <v>0</v>
       </c>
-      <c r="AD81" s="286">
+      <c r="AD81" s="278">
         <f t="shared" si="55"/>
         <v>0.9977730369545097</v>
       </c>
-      <c r="AE81" s="287">
+      <c r="AE81" s="279">
         <f t="shared" si="56"/>
-        <v>178.71811441885447</v>
-      </c>
-      <c r="AF81" s="288">
+        <v>147.73460121124884</v>
+      </c>
+      <c r="AF81" s="280">
         <v>0</v>
       </c>
-      <c r="AG81" s="289">
+      <c r="AG81" s="281">
         <v>250</v>
       </c>
-      <c r="AH81" s="290">
+      <c r="AH81" s="282">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AI81" s="287">
+      <c r="AI81" s="279">
         <f t="shared" si="58"/>
-        <v>178.71811441885447</v>
-      </c>
-      <c r="AJ81" s="291">
+        <v>147.73460121124884</v>
+      </c>
+      <c r="AJ81" s="283">
         <f t="shared" si="59"/>
-        <v>178.71811441885447</v>
-      </c>
-      <c r="AK81" s="292"/>
-      <c r="AL81" s="292"/>
-      <c r="AM81" s="291"/>
-      <c r="AN81" s="292"/>
-      <c r="AO81" s="292"/>
-      <c r="AP81" s="291"/>
-      <c r="AQ81" s="292"/>
-    </row>
-    <row r="82" spans="1:43" s="279" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="274" t="s">
+        <v>147.73460121124884</v>
+      </c>
+      <c r="AK81" s="284"/>
+      <c r="AL81" s="284"/>
+      <c r="AM81" s="283"/>
+      <c r="AN81" s="284"/>
+      <c r="AO81" s="284"/>
+      <c r="AP81" s="283"/>
+      <c r="AQ81" s="284"/>
+    </row>
+    <row r="82" spans="1:43" s="271" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="266" t="s">
         <v>146</v>
       </c>
-      <c r="B82" s="274" t="s">
+      <c r="B82" s="266" t="s">
         <v>98</v>
       </c>
-      <c r="C82" s="274" t="s">
-        <v>283</v>
-      </c>
-      <c r="D82" s="274" t="s">
+      <c r="C82" s="266" t="s">
+        <v>257</v>
+      </c>
+      <c r="D82" s="266" t="s">
         <v>120</v>
       </c>
-      <c r="E82" s="274">
+      <c r="E82" s="266">
         <v>1.5</v>
       </c>
-      <c r="F82" s="275">
+      <c r="F82" s="267">
         <v>45449.639016203706</v>
       </c>
-      <c r="G82" s="274">
+      <c r="G82" s="266">
         <v>1</v>
       </c>
-      <c r="H82" s="274">
+      <c r="H82" s="266">
         <v>55.000999999999998</v>
       </c>
-      <c r="I82" s="274">
+      <c r="I82" s="266">
         <v>8.2200030000000002</v>
       </c>
-      <c r="J82" s="274">
+      <c r="J82" s="266">
         <v>1.749476</v>
       </c>
-      <c r="K82" s="274">
+      <c r="K82" s="266">
         <v>2.4798260000000001</v>
       </c>
-      <c r="L82" s="274">
+      <c r="L82" s="266">
         <v>119.62846</v>
       </c>
-      <c r="M82" s="274">
+      <c r="M82" s="266">
         <v>65.997131999999993</v>
       </c>
-      <c r="N82" s="274">
+      <c r="N82" s="266">
         <v>1676.6888309999999</v>
       </c>
-      <c r="O82" s="274">
+      <c r="O82" s="266">
         <v>1676.6888309999999</v>
       </c>
-      <c r="P82" s="274">
+      <c r="P82" s="266">
         <v>150.22814199999999</v>
       </c>
-      <c r="Q82" s="274" t="s">
+      <c r="Q82" s="266" t="s">
         <v>100</v>
       </c>
-      <c r="R82" s="276">
+      <c r="R82" s="268">
         <f t="shared" si="45"/>
         <v>45449</v>
       </c>
-      <c r="S82" s="277">
+      <c r="S82" s="269">
         <f t="shared" si="46"/>
         <v>0.63901620370597811</v>
       </c>
-      <c r="T82" s="278">
+      <c r="T82" s="270">
         <f t="shared" si="47"/>
         <v>45449.639016203706</v>
       </c>
-      <c r="U82" s="279" t="str">
+      <c r="U82" s="271" t="str">
         <f t="shared" si="48"/>
         <v>DIT_03_FL3</v>
       </c>
-      <c r="V82" s="279">
+      <c r="V82" s="271">
         <f t="shared" si="49"/>
         <v>1.5</v>
       </c>
-      <c r="W82" s="279">
+      <c r="W82" s="271">
         <f t="shared" si="50"/>
         <v>1676.6888309999999</v>
       </c>
-      <c r="X82" s="280">
+      <c r="X82" s="272">
         <f t="shared" si="51"/>
         <v>2.2280219166366018</v>
       </c>
-      <c r="Y82" s="281">
+      <c r="Y82" s="273">
         <f t="shared" si="52"/>
-        <v>1.0434237087012361</v>
-      </c>
-      <c r="Z82" s="282">
+        <v>2.2295410772506101</v>
+      </c>
+      <c r="Z82" s="274">
         <f t="shared" si="53"/>
-        <v>211.25157769052203</v>
-      </c>
-      <c r="AA82" s="283">
+        <v>225.41232935456517</v>
+      </c>
+      <c r="AA82" s="275">
         <f t="shared" si="54"/>
-        <v>140.83438512701468</v>
-      </c>
-      <c r="AB82" s="284">
+        <v>150.27488623637677</v>
+      </c>
+      <c r="AB82" s="276">
         <v>22</v>
       </c>
-      <c r="AC82" s="285">
+      <c r="AC82" s="277">
         <v>0</v>
       </c>
-      <c r="AD82" s="286">
+      <c r="AD82" s="278">
         <f t="shared" si="55"/>
         <v>0.9977730369545097</v>
       </c>
-      <c r="AE82" s="287">
+      <c r="AE82" s="279">
         <f t="shared" si="56"/>
-        <v>141.14871810615543</v>
-      </c>
-      <c r="AF82" s="288">
+        <v>150.61028978600078</v>
+      </c>
+      <c r="AF82" s="280">
         <v>0</v>
       </c>
-      <c r="AG82" s="289">
+      <c r="AG82" s="281">
         <v>250</v>
       </c>
-      <c r="AH82" s="290">
+      <c r="AH82" s="282">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AI82" s="287">
+      <c r="AI82" s="279">
         <f t="shared" si="58"/>
-        <v>141.14871810615543</v>
-      </c>
-      <c r="AJ82" s="291">
+        <v>150.61028978600078</v>
+      </c>
+      <c r="AJ82" s="283">
         <f t="shared" si="59"/>
-        <v>141.14871810615543</v>
-      </c>
-      <c r="AK82" s="292"/>
-      <c r="AL82" s="292"/>
-      <c r="AM82" s="291"/>
-      <c r="AN82" s="292"/>
-      <c r="AO82" s="292"/>
-      <c r="AP82" s="291"/>
-      <c r="AQ82" s="292"/>
-    </row>
-    <row r="83" spans="1:43" s="224" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="202" t="s">
+        <v>150.61028978600078</v>
+      </c>
+      <c r="AK82" s="284"/>
+      <c r="AL82" s="284"/>
+      <c r="AM82" s="283"/>
+      <c r="AN82" s="284"/>
+      <c r="AO82" s="284"/>
+      <c r="AP82" s="283"/>
+      <c r="AQ82" s="284"/>
+    </row>
+    <row r="83" spans="1:43" s="223" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="201" t="s">
         <v>121</v>
       </c>
-      <c r="B83" s="202" t="s">
+      <c r="B83" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="C83" s="202" t="s">
-        <v>270</v>
-      </c>
-      <c r="D83" s="202" t="s">
+      <c r="C83" s="201" t="s">
+        <v>244</v>
+      </c>
+      <c r="D83" s="201" t="s">
         <v>135</v>
       </c>
-      <c r="E83" s="202">
+      <c r="E83" s="201">
         <v>1.5</v>
       </c>
-      <c r="F83" s="203">
+      <c r="F83" s="202">
         <v>45449.595266203702</v>
       </c>
-      <c r="G83" s="202">
+      <c r="G83" s="201">
         <v>1</v>
       </c>
-      <c r="H83" s="202">
+      <c r="H83" s="201">
         <v>55.000300000000003</v>
       </c>
-      <c r="I83" s="202">
+      <c r="I83" s="201">
         <v>8.4743300000000001</v>
       </c>
-      <c r="J83" s="202">
+      <c r="J83" s="201">
         <v>1.814514</v>
       </c>
-      <c r="K83" s="202">
+      <c r="K83" s="201">
         <v>2.5677989999999999</v>
       </c>
-      <c r="L83" s="202">
+      <c r="L83" s="201">
         <v>146.94255000000001</v>
       </c>
-      <c r="M83" s="202">
+      <c r="M83" s="201">
         <v>66.997128000000004</v>
       </c>
-      <c r="N83" s="202">
+      <c r="N83" s="201">
         <v>2031.9061830000001</v>
       </c>
-      <c r="O83" s="202">
+      <c r="O83" s="201">
         <v>2031.9061830000001</v>
       </c>
-      <c r="P83" s="202">
+      <c r="P83" s="201">
         <v>182.645151</v>
       </c>
-      <c r="Q83" s="202" t="s">
+      <c r="Q83" s="201" t="s">
         <v>100</v>
       </c>
-      <c r="R83" s="221">
+      <c r="R83" s="220">
         <f t="shared" si="45"/>
         <v>45449</v>
       </c>
-      <c r="S83" s="222">
+      <c r="S83" s="221">
         <f t="shared" si="46"/>
         <v>0.59526620370161254</v>
       </c>
-      <c r="T83" s="223">
+      <c r="T83" s="222">
         <f t="shared" si="47"/>
         <v>45449.595266203702</v>
       </c>
-      <c r="U83" s="224" t="str">
+      <c r="U83" s="223" t="str">
         <f t="shared" si="48"/>
         <v>DIT_03_SC1-1</v>
       </c>
-      <c r="V83" s="224">
+      <c r="V83" s="223">
         <f t="shared" si="49"/>
         <v>1.5</v>
       </c>
-      <c r="W83" s="224">
+      <c r="W83" s="223">
         <f t="shared" si="50"/>
         <v>2031.9061830000001</v>
       </c>
-      <c r="X83" s="225">
+      <c r="X83" s="224">
         <f t="shared" si="51"/>
         <v>2.7082258396029717</v>
       </c>
-      <c r="Y83" s="226">
+      <c r="Y83" s="225">
         <f t="shared" si="52"/>
-        <v>1.8435893508760515</v>
-      </c>
-      <c r="Z83" s="227">
+        <v>2.7095703218465736</v>
+      </c>
+      <c r="Z83" s="226">
         <f t="shared" si="53"/>
-        <v>373.2531240552114</v>
-      </c>
-      <c r="AA83" s="228">
+        <v>273.94451890997016</v>
+      </c>
+      <c r="AA83" s="227">
         <f t="shared" si="54"/>
-        <v>248.8354160368076</v>
-      </c>
-      <c r="AB83" s="229">
+        <v>182.62967927331343</v>
+      </c>
+      <c r="AB83" s="228">
         <v>22</v>
       </c>
-      <c r="AC83" s="230">
+      <c r="AC83" s="229">
         <v>3.3</v>
       </c>
-      <c r="AD83" s="231">
+      <c r="AD83" s="230">
         <f t="shared" si="55"/>
         <v>1.0002738416552892</v>
       </c>
-      <c r="AE83" s="232">
+      <c r="AE83" s="231">
         <f t="shared" si="56"/>
-        <v>248.7672931894588</v>
-      </c>
-      <c r="AF83" s="233">
+        <v>182.57968135115004</v>
+      </c>
+      <c r="AF83" s="232">
         <v>0</v>
       </c>
-      <c r="AG83" s="234">
+      <c r="AG83" s="233">
         <v>250</v>
       </c>
-      <c r="AH83" s="235">
+      <c r="AH83" s="234">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AI83" s="232">
+      <c r="AI83" s="231">
         <f t="shared" si="58"/>
-        <v>248.7672931894588</v>
-      </c>
-      <c r="AJ83" s="236">
+        <v>182.57968135115004</v>
+      </c>
+      <c r="AJ83" s="235">
         <f>AVERAGE(AI83:AI86)</f>
-        <v>196.34836085737777</v>
-      </c>
-      <c r="AK83" s="237">
+        <v>184.95109480788153</v>
+      </c>
+      <c r="AK83" s="236">
         <f>STDEV(AI83:AI86)</f>
-        <v>61.681409394036777</v>
-      </c>
-      <c r="AL83" s="237"/>
-      <c r="AM83" s="236">
+        <v>5.558119739570607</v>
+      </c>
+      <c r="AL83" s="236"/>
+      <c r="AM83" s="235">
         <f>AVERAGE(AE83:AE86)</f>
-        <v>196.34836085737777</v>
-      </c>
-      <c r="AN83" s="237">
+        <v>184.95109480788153</v>
+      </c>
+      <c r="AN83" s="236">
         <f>STDEV(AE83:AE86)</f>
-        <v>61.681409394036777</v>
-      </c>
-      <c r="AO83" s="237"/>
-      <c r="AP83" s="236" t="s">
-        <v>289</v>
-      </c>
-      <c r="AQ83" s="237"/>
-    </row>
-    <row r="84" spans="1:43" s="207" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="202" t="s">
+        <v>5.558119739570607</v>
+      </c>
+      <c r="AO83" s="236"/>
+      <c r="AP83" s="235" t="s">
+        <v>263</v>
+      </c>
+      <c r="AQ83" s="236"/>
+    </row>
+    <row r="84" spans="1:43" s="206" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="201" t="s">
         <v>122</v>
       </c>
-      <c r="B84" s="202" t="s">
+      <c r="B84" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="C84" s="202" t="s">
-        <v>271</v>
-      </c>
-      <c r="D84" s="202" t="s">
+      <c r="C84" s="201" t="s">
+        <v>245</v>
+      </c>
+      <c r="D84" s="201" t="s">
         <v>135</v>
       </c>
-      <c r="E84" s="202">
+      <c r="E84" s="201">
         <v>1.5</v>
       </c>
-      <c r="F84" s="203">
+      <c r="F84" s="202">
         <v>45449.598067129627</v>
       </c>
-      <c r="G84" s="202">
+      <c r="G84" s="201">
         <v>1</v>
       </c>
-      <c r="H84" s="202">
+      <c r="H84" s="201">
         <v>55.000300000000003</v>
       </c>
-      <c r="I84" s="202">
+      <c r="I84" s="201">
         <v>8.4616629999999997</v>
       </c>
-      <c r="J84" s="202">
+      <c r="J84" s="201">
         <v>1.744597</v>
       </c>
-      <c r="K84" s="202">
+      <c r="K84" s="201">
         <v>2.4848629999999998</v>
       </c>
-      <c r="L84" s="202">
+      <c r="L84" s="201">
         <v>147.82472999999999</v>
       </c>
-      <c r="M84" s="202">
+      <c r="M84" s="201">
         <v>67.996823000000006</v>
       </c>
-      <c r="N84" s="202">
+      <c r="N84" s="201">
         <v>2041.2538569999999</v>
       </c>
-      <c r="O84" s="202">
+      <c r="O84" s="201">
         <v>2041.2538569999999</v>
       </c>
-      <c r="P84" s="202">
+      <c r="P84" s="201">
         <v>183.49821700000001</v>
       </c>
-      <c r="Q84" s="202" t="s">
+      <c r="Q84" s="201" t="s">
         <v>100</v>
       </c>
-      <c r="R84" s="204">
+      <c r="R84" s="203">
         <f t="shared" si="45"/>
         <v>45449</v>
       </c>
-      <c r="S84" s="205">
+      <c r="S84" s="204">
         <f t="shared" si="46"/>
         <v>0.59806712962745223</v>
       </c>
-      <c r="T84" s="206">
+      <c r="T84" s="205">
         <f t="shared" si="47"/>
         <v>45449.598067129627</v>
       </c>
-      <c r="U84" s="207" t="str">
+      <c r="U84" s="206" t="str">
         <f t="shared" si="48"/>
         <v>DIT_03_SC1-2</v>
       </c>
-      <c r="V84" s="207">
+      <c r="V84" s="206">
         <f t="shared" si="49"/>
         <v>1.5</v>
       </c>
-      <c r="W84" s="207">
+      <c r="W84" s="206">
         <f t="shared" si="50"/>
         <v>2041.2538569999999</v>
       </c>
-      <c r="X84" s="208">
+      <c r="X84" s="207">
         <f t="shared" si="51"/>
         <v>2.7208625807422693</v>
       </c>
-      <c r="Y84" s="209">
+      <c r="Y84" s="208">
         <f t="shared" si="52"/>
-        <v>1.7925776695777178</v>
-      </c>
-      <c r="Z84" s="210">
+        <v>2.7223105335849436</v>
+      </c>
+      <c r="Z84" s="209">
         <f t="shared" si="53"/>
-        <v>362.92529839335015</v>
-      </c>
-      <c r="AA84" s="211">
+        <v>275.2325870392005</v>
+      </c>
+      <c r="AA84" s="210">
         <f t="shared" si="54"/>
-        <v>241.95019892890011</v>
-      </c>
-      <c r="AB84" s="212">
+        <v>183.48839135946699</v>
+      </c>
+      <c r="AB84" s="211">
         <v>22</v>
       </c>
-      <c r="AC84" s="213">
+      <c r="AC84" s="212">
         <v>3.3</v>
       </c>
-      <c r="AD84" s="214">
+      <c r="AD84" s="213">
         <f t="shared" si="55"/>
         <v>1.0002738416552892</v>
       </c>
-      <c r="AE84" s="215">
+      <c r="AE84" s="214">
         <f t="shared" si="56"/>
-        <v>241.88396102462522</v>
-      </c>
-      <c r="AF84" s="216">
+        <v>183.43815835054107</v>
+      </c>
+      <c r="AF84" s="215">
         <v>0</v>
       </c>
-      <c r="AG84" s="217">
+      <c r="AG84" s="216">
         <v>250</v>
       </c>
-      <c r="AH84" s="218">
+      <c r="AH84" s="217">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AI84" s="215">
+      <c r="AI84" s="214">
         <f t="shared" si="58"/>
-        <v>241.88396102462522</v>
-      </c>
-      <c r="AJ84" s="219"/>
-      <c r="AK84" s="220"/>
-      <c r="AL84" s="220"/>
-      <c r="AM84" s="219"/>
-      <c r="AN84" s="220"/>
-      <c r="AO84" s="220"/>
-      <c r="AP84" s="219"/>
-      <c r="AQ84" s="220"/>
-    </row>
-    <row r="85" spans="1:43" s="224" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="202" t="s">
+        <v>183.43815835054107</v>
+      </c>
+      <c r="AJ84" s="218"/>
+      <c r="AK84" s="219"/>
+      <c r="AL84" s="219"/>
+      <c r="AM84" s="218"/>
+      <c r="AN84" s="219"/>
+      <c r="AO84" s="219"/>
+      <c r="AP84" s="218"/>
+      <c r="AQ84" s="219"/>
+    </row>
+    <row r="85" spans="1:43" s="223" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="201" t="s">
         <v>141</v>
       </c>
-      <c r="B85" s="202" t="s">
+      <c r="B85" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="202" t="s">
-        <v>278</v>
-      </c>
-      <c r="D85" s="202" t="s">
+      <c r="C85" s="201" t="s">
+        <v>252</v>
+      </c>
+      <c r="D85" s="201" t="s">
         <v>135</v>
       </c>
-      <c r="E85" s="202">
+      <c r="E85" s="201">
         <v>1.5</v>
       </c>
-      <c r="F85" s="203">
+      <c r="F85" s="202">
         <v>45449.621666666666</v>
       </c>
-      <c r="G85" s="202">
+      <c r="G85" s="201">
         <v>1</v>
       </c>
-      <c r="H85" s="202">
+      <c r="H85" s="201">
         <v>55.000999999999998</v>
       </c>
-      <c r="I85" s="202">
+      <c r="I85" s="201">
         <v>8.2362800000000007</v>
       </c>
-      <c r="J85" s="202">
+      <c r="J85" s="201">
         <v>1.7529110000000001</v>
       </c>
-      <c r="K85" s="202">
+      <c r="K85" s="201">
         <v>2.5104869999999999</v>
       </c>
-      <c r="L85" s="202">
+      <c r="L85" s="201">
         <v>141.98222000000001</v>
       </c>
-      <c r="M85" s="202">
+      <c r="M85" s="201">
         <v>67.997125999999994</v>
       </c>
-      <c r="N85" s="202">
+      <c r="N85" s="201">
         <v>2010.4824020000001</v>
       </c>
-      <c r="O85" s="202">
+      <c r="O85" s="201">
         <v>2010.4824020000001</v>
       </c>
-      <c r="P85" s="202">
+      <c r="P85" s="201">
         <v>180.69002499999999</v>
       </c>
-      <c r="Q85" s="202" t="s">
+      <c r="Q85" s="201" t="s">
         <v>100</v>
       </c>
-      <c r="R85" s="221">
+      <c r="R85" s="220">
         <f t="shared" si="45"/>
         <v>45449</v>
       </c>
-      <c r="S85" s="222">
+      <c r="S85" s="221">
         <f t="shared" si="46"/>
         <v>0.62166666666598758</v>
       </c>
-      <c r="T85" s="223">
+      <c r="T85" s="222">
         <f t="shared" si="47"/>
         <v>45449.621666666666</v>
       </c>
-      <c r="U85" s="224" t="str">
+      <c r="U85" s="223" t="str">
         <f t="shared" si="48"/>
         <v>DIT_03_SC2</v>
       </c>
-      <c r="V85" s="224">
+      <c r="V85" s="223">
         <f t="shared" si="49"/>
         <v>1.5</v>
       </c>
-      <c r="W85" s="224">
+      <c r="W85" s="223">
         <f t="shared" si="50"/>
         <v>2010.4824020000001</v>
       </c>
-      <c r="X85" s="225">
+      <c r="X85" s="224">
         <f t="shared" si="51"/>
         <v>2.6792638994751923</v>
       </c>
-      <c r="Y85" s="226">
+      <c r="Y85" s="225">
         <f t="shared" si="52"/>
-        <v>1.3141708216549719</v>
-      </c>
-      <c r="Z85" s="227">
+        <v>2.6813709849246097</v>
+      </c>
+      <c r="Z85" s="226">
         <f t="shared" si="53"/>
-        <v>266.0670417150294</v>
-      </c>
-      <c r="AA85" s="228">
+        <v>271.09349351882884</v>
+      </c>
+      <c r="AA85" s="227">
         <f t="shared" si="54"/>
-        <v>177.3780278100196</v>
-      </c>
-      <c r="AB85" s="229">
+        <v>180.72899567921922</v>
+      </c>
+      <c r="AB85" s="228">
         <v>22</v>
       </c>
-      <c r="AC85" s="230">
+      <c r="AC85" s="229">
         <v>3.3</v>
       </c>
-      <c r="AD85" s="231">
+      <c r="AD85" s="230">
         <f t="shared" si="55"/>
         <v>1.0002738416552892</v>
       </c>
-      <c r="AE85" s="232">
+      <c r="AE85" s="231">
         <f t="shared" si="56"/>
-        <v>177.32946761507634</v>
-      </c>
-      <c r="AF85" s="233">
+        <v>180.67951810090563</v>
+      </c>
+      <c r="AF85" s="232">
         <v>0</v>
       </c>
-      <c r="AG85" s="234">
+      <c r="AG85" s="233">
         <v>250</v>
       </c>
-      <c r="AH85" s="235">
+      <c r="AH85" s="234">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AI85" s="232">
+      <c r="AI85" s="231">
         <f t="shared" si="58"/>
-        <v>177.32946761507634</v>
-      </c>
-      <c r="AJ85" s="236"/>
-      <c r="AK85" s="237"/>
-      <c r="AL85" s="237"/>
-      <c r="AM85" s="236"/>
-      <c r="AN85" s="237"/>
-      <c r="AO85" s="237"/>
-      <c r="AP85" s="236"/>
-      <c r="AQ85" s="237"/>
-    </row>
-    <row r="86" spans="1:43" s="207" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="202" t="s">
+        <v>180.67951810090563</v>
+      </c>
+      <c r="AJ85" s="235"/>
+      <c r="AK85" s="236"/>
+      <c r="AL85" s="236"/>
+      <c r="AM85" s="235"/>
+      <c r="AN85" s="236"/>
+      <c r="AO85" s="236"/>
+      <c r="AP85" s="235"/>
+      <c r="AQ85" s="236"/>
+    </row>
+    <row r="86" spans="1:43" s="206" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="201" t="s">
         <v>147</v>
       </c>
-      <c r="B86" s="202" t="s">
+      <c r="B86" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="C86" s="202" t="s">
-        <v>284</v>
-      </c>
-      <c r="D86" s="202" t="s">
+      <c r="C86" s="201" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86" s="201" t="s">
         <v>135</v>
       </c>
-      <c r="E86" s="202">
+      <c r="E86" s="201">
         <v>1.5</v>
       </c>
-      <c r="F86" s="203">
+      <c r="F86" s="202">
         <v>45449.642476851855</v>
       </c>
-      <c r="G86" s="202">
+      <c r="G86" s="201">
         <v>1</v>
       </c>
-      <c r="H86" s="202">
+      <c r="H86" s="201">
         <v>55.000999999999998</v>
       </c>
-      <c r="I86" s="202">
+      <c r="I86" s="201">
         <v>8.2882770000000008</v>
       </c>
-      <c r="J86" s="202">
+      <c r="J86" s="201">
         <v>1.7364850000000001</v>
       </c>
-      <c r="K86" s="202">
+      <c r="K86" s="201">
         <v>2.4834019999999999</v>
       </c>
-      <c r="L86" s="202">
+      <c r="L86" s="201">
         <v>153.23756</v>
       </c>
-      <c r="M86" s="202">
+      <c r="M86" s="201">
         <v>67.997144000000006</v>
       </c>
-      <c r="N86" s="202">
+      <c r="N86" s="201">
         <v>2146.0964210000002</v>
       </c>
-      <c r="O86" s="202">
+      <c r="O86" s="201">
         <v>2146.0964210000002</v>
       </c>
-      <c r="P86" s="202">
+      <c r="P86" s="201">
         <v>193.066112</v>
       </c>
-      <c r="Q86" s="202" t="s">
+      <c r="Q86" s="201" t="s">
         <v>100</v>
       </c>
-      <c r="R86" s="204">
+      <c r="R86" s="203">
         <f t="shared" si="45"/>
         <v>45449</v>
       </c>
-      <c r="S86" s="205">
+      <c r="S86" s="204">
         <f t="shared" si="46"/>
         <v>0.64247685185546288</v>
       </c>
-      <c r="T86" s="206">
+      <c r="T86" s="205">
         <f t="shared" si="47"/>
         <v>45449.642476851855</v>
       </c>
-      <c r="U86" s="207" t="str">
+      <c r="U86" s="206" t="str">
         <f t="shared" si="48"/>
         <v>DIT_03_SC3</v>
       </c>
-      <c r="V86" s="207">
+      <c r="V86" s="206">
         <f t="shared" si="49"/>
         <v>1.5</v>
       </c>
-      <c r="W86" s="207">
+      <c r="W86" s="206">
         <f t="shared" si="50"/>
         <v>2146.0964210000002</v>
       </c>
-      <c r="X86" s="208">
+      <c r="X86" s="207">
         <f t="shared" si="51"/>
         <v>2.8625949883602755</v>
       </c>
-      <c r="Y86" s="209">
+      <c r="Y86" s="208">
         <f t="shared" si="52"/>
-        <v>0.8701338525033786</v>
-      </c>
-      <c r="Z86" s="210">
+        <v>2.8658011139678305</v>
+      </c>
+      <c r="Z86" s="209">
         <f t="shared" si="53"/>
-        <v>176.16731114157878</v>
-      </c>
-      <c r="AA86" s="211">
+        <v>289.73985326298816</v>
+      </c>
+      <c r="AA86" s="210">
         <f t="shared" si="54"/>
-        <v>117.44487409438585</v>
-      </c>
-      <c r="AB86" s="212">
+        <v>193.15990217532544</v>
+      </c>
+      <c r="AB86" s="211">
         <v>22</v>
       </c>
-      <c r="AC86" s="213">
+      <c r="AC86" s="212">
         <v>3.3</v>
       </c>
-      <c r="AD86" s="214">
+      <c r="AD86" s="213">
         <f t="shared" si="55"/>
         <v>1.0002738416552892</v>
       </c>
-      <c r="AE86" s="215">
+      <c r="AE86" s="214">
         <f t="shared" si="56"/>
-        <v>117.41272160035081</v>
-      </c>
-      <c r="AF86" s="216">
+        <v>193.10702142892939</v>
+      </c>
+      <c r="AF86" s="215">
         <v>0</v>
       </c>
-      <c r="AG86" s="217">
+      <c r="AG86" s="216">
         <v>250</v>
       </c>
-      <c r="AH86" s="218">
+      <c r="AH86" s="217">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AI86" s="215">
+      <c r="AI86" s="214">
         <f t="shared" si="58"/>
-        <v>117.41272160035081</v>
-      </c>
-      <c r="AJ86" s="219"/>
-      <c r="AK86" s="220"/>
-      <c r="AL86" s="220"/>
-      <c r="AM86" s="219"/>
-      <c r="AN86" s="220"/>
-      <c r="AO86" s="220"/>
-      <c r="AP86" s="219"/>
-      <c r="AQ86" s="220"/>
-    </row>
-    <row r="87" spans="1:43" s="315" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="310" t="s">
+        <v>193.10702142892939</v>
+      </c>
+      <c r="AJ86" s="218"/>
+      <c r="AK86" s="219"/>
+      <c r="AL86" s="219"/>
+      <c r="AM86" s="218"/>
+      <c r="AN86" s="219"/>
+      <c r="AO86" s="219"/>
+      <c r="AP86" s="218"/>
+      <c r="AQ86" s="219"/>
+    </row>
+    <row r="87" spans="1:43" s="307" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="302" t="s">
         <v>123</v>
       </c>
-      <c r="B87" s="310" t="s">
+      <c r="B87" s="302" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="310" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="310" t="s">
+      <c r="C87" s="302" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" s="302" t="s">
         <v>138</v>
       </c>
-      <c r="E87" s="310">
+      <c r="E87" s="302">
         <v>1.5</v>
       </c>
-      <c r="F87" s="311">
+      <c r="F87" s="303">
         <v>45449.601539351854</v>
       </c>
-      <c r="G87" s="310">
+      <c r="G87" s="302">
         <v>1</v>
       </c>
-      <c r="H87" s="310">
+      <c r="H87" s="302">
         <v>55.000300000000003</v>
       </c>
-      <c r="I87" s="310">
+      <c r="I87" s="302">
         <v>8.3802889999999994</v>
       </c>
-      <c r="J87" s="310">
+      <c r="J87" s="302">
         <v>1.7952459999999999</v>
       </c>
-      <c r="K87" s="310">
+      <c r="K87" s="302">
         <v>2.551132</v>
       </c>
-      <c r="L87" s="310">
+      <c r="L87" s="302">
         <v>170.53524999999999</v>
       </c>
-      <c r="M87" s="310">
+      <c r="M87" s="302">
         <v>67.996809999999996</v>
       </c>
-      <c r="N87" s="310">
+      <c r="N87" s="302">
         <v>2341.0910239999998</v>
       </c>
-      <c r="O87" s="310">
+      <c r="O87" s="302">
         <v>2341.0910239999998</v>
       </c>
-      <c r="P87" s="310">
+      <c r="P87" s="302">
         <v>210.86125000000001</v>
       </c>
-      <c r="Q87" s="310" t="s">
+      <c r="Q87" s="302" t="s">
         <v>100</v>
       </c>
-      <c r="R87" s="312">
+      <c r="R87" s="304">
         <f t="shared" si="45"/>
         <v>45449</v>
       </c>
-      <c r="S87" s="313">
+      <c r="S87" s="305">
         <f t="shared" si="46"/>
         <v>0.60153935185371665</v>
       </c>
-      <c r="T87" s="314">
+      <c r="T87" s="306">
         <f t="shared" si="47"/>
         <v>45449.601539351854</v>
       </c>
-      <c r="U87" s="315" t="str">
+      <c r="U87" s="307" t="str">
         <f t="shared" si="48"/>
         <v>DIT_03_SL1-1</v>
       </c>
-      <c r="V87" s="315">
+      <c r="V87" s="307">
         <f t="shared" si="49"/>
         <v>1.5</v>
       </c>
-      <c r="W87" s="315">
+      <c r="W87" s="307">
         <f t="shared" si="50"/>
         <v>2341.0910239999998</v>
       </c>
-      <c r="X87" s="316">
+      <c r="X87" s="308">
         <f t="shared" si="51"/>
         <v>3.126200279010237</v>
       </c>
-      <c r="Y87" s="317">
+      <c r="Y87" s="309">
         <f t="shared" si="52"/>
-        <v>1.8618450636357537</v>
-      </c>
-      <c r="Z87" s="318">
+        <v>3.1283263406039872</v>
+      </c>
+      <c r="Z87" s="310">
         <f t="shared" si="53"/>
-        <v>376.94917589895607</v>
-      </c>
-      <c r="AA87" s="319">
+        <v>316.28182795643738</v>
+      </c>
+      <c r="AA87" s="311">
         <f t="shared" si="54"/>
-        <v>251.29945059930404</v>
-      </c>
-      <c r="AB87" s="320">
+        <v>210.85455197095825</v>
+      </c>
+      <c r="AB87" s="312">
         <v>22</v>
       </c>
-      <c r="AC87" s="321">
+      <c r="AC87" s="313">
         <v>3.3</v>
       </c>
-      <c r="AD87" s="322">
+      <c r="AD87" s="314">
         <f t="shared" si="55"/>
         <v>1.0002738416552892</v>
       </c>
-      <c r="AE87" s="323">
+      <c r="AE87" s="315">
         <f t="shared" si="56"/>
-        <v>251.23065318137745</v>
-      </c>
-      <c r="AF87" s="324">
+        <v>210.79682701891767</v>
+      </c>
+      <c r="AF87" s="316">
         <v>0</v>
       </c>
-      <c r="AG87" s="325">
+      <c r="AG87" s="317">
         <v>250</v>
       </c>
-      <c r="AH87" s="326">
+      <c r="AH87" s="318">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AI87" s="323">
+      <c r="AI87" s="315">
         <f t="shared" si="58"/>
-        <v>251.23065318137745</v>
-      </c>
-      <c r="AJ87" s="327">
+        <v>210.79682701891767</v>
+      </c>
+      <c r="AJ87" s="319">
         <f>AVERAGE(AI87:AI90)</f>
-        <v>189.12523854548729</v>
-      </c>
-      <c r="AK87" s="328">
+        <v>216.29860408318271</v>
+      </c>
+      <c r="AK87" s="320">
         <f>STDEV(AI87:AI90)</f>
-        <v>74.071617463278045</v>
-      </c>
-      <c r="AL87" s="328"/>
-      <c r="AM87" s="327">
+        <v>5.8901551405441328</v>
+      </c>
+      <c r="AL87" s="320"/>
+      <c r="AM87" s="319">
         <f>AVERAGE(AE87:AE90)</f>
-        <v>189.12523854548729</v>
-      </c>
-      <c r="AN87" s="328">
+        <v>216.29860408318271</v>
+      </c>
+      <c r="AN87" s="320">
         <f>STDEV(AE87:AE90)</f>
-        <v>74.071617463278045</v>
-      </c>
-      <c r="AO87" s="328"/>
-      <c r="AP87" s="327" t="s">
-        <v>290</v>
-      </c>
-      <c r="AQ87" s="328"/>
-    </row>
-    <row r="88" spans="1:43" s="332" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="310" t="s">
+        <v>5.8901551405441328</v>
+      </c>
+      <c r="AO87" s="320"/>
+      <c r="AP87" s="319" t="s">
+        <v>264</v>
+      </c>
+      <c r="AQ87" s="320"/>
+    </row>
+    <row r="88" spans="1:43" s="324" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="302" t="s">
         <v>134</v>
       </c>
-      <c r="B88" s="310" t="s">
+      <c r="B88" s="302" t="s">
         <v>98</v>
       </c>
-      <c r="C88" s="310" t="s">
-        <v>273</v>
-      </c>
-      <c r="D88" s="310" t="s">
+      <c r="C88" s="302" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" s="302" t="s">
         <v>138</v>
       </c>
-      <c r="E88" s="310">
+      <c r="E88" s="302">
         <v>1.5</v>
       </c>
-      <c r="F88" s="311">
+      <c r="F88" s="303">
         <v>45449.604351851849</v>
       </c>
-      <c r="G88" s="310">
+      <c r="G88" s="302">
         <v>1</v>
       </c>
-      <c r="H88" s="310">
+      <c r="H88" s="302">
         <v>55.000300000000003</v>
       </c>
-      <c r="I88" s="310">
+      <c r="I88" s="302">
         <v>8.1644780000000008</v>
       </c>
-      <c r="J88" s="310">
+      <c r="J88" s="302">
         <v>1.7453920000000001</v>
       </c>
-      <c r="K88" s="310">
+      <c r="K88" s="302">
         <v>2.5378129999999999</v>
       </c>
-      <c r="L88" s="310">
+      <c r="L88" s="302">
         <v>168.51464999999999</v>
       </c>
-      <c r="M88" s="310">
+      <c r="M88" s="302">
         <v>68.997131999999993</v>
       </c>
-      <c r="N88" s="310">
+      <c r="N88" s="302">
         <v>2359.2203760000002</v>
       </c>
-      <c r="O88" s="310">
+      <c r="O88" s="302">
         <v>2359.2203760000002</v>
       </c>
-      <c r="P88" s="310">
+      <c r="P88" s="302">
         <v>212.515728</v>
       </c>
-      <c r="Q88" s="310" t="s">
+      <c r="Q88" s="302" t="s">
         <v>100</v>
       </c>
-      <c r="R88" s="329">
+      <c r="R88" s="321">
         <f t="shared" si="45"/>
         <v>45449</v>
       </c>
-      <c r="S88" s="330">
+      <c r="S88" s="322">
         <f t="shared" si="46"/>
         <v>0.60435185184906004</v>
       </c>
-      <c r="T88" s="331">
+      <c r="T88" s="323">
         <f t="shared" si="47"/>
         <v>45449.604351851849</v>
       </c>
-      <c r="U88" s="332" t="str">
+      <c r="U88" s="324" t="str">
         <f t="shared" si="48"/>
         <v>DIT_03_SL1-2</v>
       </c>
-      <c r="V88" s="332">
+      <c r="V88" s="324">
         <f t="shared" si="49"/>
         <v>1.5</v>
       </c>
-      <c r="W88" s="332">
+      <c r="W88" s="324">
         <f t="shared" si="50"/>
         <v>2359.2203760000002</v>
       </c>
-      <c r="X88" s="333">
+      <c r="X88" s="325">
         <f t="shared" si="51"/>
         <v>3.1507086142653189</v>
       </c>
-      <c r="Y88" s="334">
+      <c r="Y88" s="326">
         <f t="shared" si="52"/>
-        <v>1.7976133987502081</v>
-      </c>
-      <c r="Z88" s="335">
+        <v>3.1529916590184266</v>
+      </c>
+      <c r="Z88" s="327">
         <f t="shared" si="53"/>
-        <v>363.94483218737798</v>
-      </c>
-      <c r="AA88" s="336">
+        <v>318.77555499955025</v>
+      </c>
+      <c r="AA88" s="328">
         <f t="shared" si="54"/>
-        <v>242.62988812491866</v>
-      </c>
-      <c r="AB88" s="337">
+        <v>212.51703666636683</v>
+      </c>
+      <c r="AB88" s="329">
         <v>22</v>
       </c>
-      <c r="AC88" s="338">
+      <c r="AC88" s="330">
         <v>3.3</v>
       </c>
-      <c r="AD88" s="339">
+      <c r="AD88" s="331">
         <f t="shared" si="55"/>
         <v>1.0002738416552892</v>
       </c>
-      <c r="AE88" s="340">
+      <c r="AE88" s="332">
         <f t="shared" si="56"/>
-        <v>242.56346414438468</v>
-      </c>
-      <c r="AF88" s="341">
+        <v>212.45885658139974</v>
+      </c>
+      <c r="AF88" s="333">
         <v>0</v>
       </c>
-      <c r="AG88" s="342">
+      <c r="AG88" s="334">
         <v>250</v>
       </c>
-      <c r="AH88" s="343">
+      <c r="AH88" s="335">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AI88" s="340">
+      <c r="AI88" s="332">
         <f t="shared" si="58"/>
-        <v>242.56346414438468</v>
-      </c>
-      <c r="AJ88" s="344"/>
-      <c r="AK88" s="345"/>
-      <c r="AL88" s="345"/>
-      <c r="AM88" s="344"/>
-      <c r="AN88" s="345"/>
-      <c r="AO88" s="345"/>
-      <c r="AP88" s="344"/>
-    </row>
-    <row r="89" spans="1:43" s="315" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="310" t="s">
+        <v>212.45885658139974</v>
+      </c>
+      <c r="AJ88" s="336"/>
+      <c r="AK88" s="337"/>
+      <c r="AL88" s="337"/>
+      <c r="AM88" s="336"/>
+      <c r="AN88" s="337"/>
+      <c r="AO88" s="337"/>
+      <c r="AP88" s="336"/>
+    </row>
+    <row r="89" spans="1:43" s="307" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="302" t="s">
         <v>142</v>
       </c>
-      <c r="B89" s="310" t="s">
+      <c r="B89" s="302" t="s">
         <v>98</v>
       </c>
-      <c r="C89" s="310" t="s">
-        <v>279</v>
-      </c>
-      <c r="D89" s="310" t="s">
+      <c r="C89" s="302" t="s">
+        <v>253</v>
+      </c>
+      <c r="D89" s="302" t="s">
         <v>138</v>
       </c>
-      <c r="E89" s="310">
+      <c r="E89" s="302">
         <v>1.5</v>
       </c>
-      <c r="F89" s="311">
+      <c r="F89" s="303">
         <v>45449.625115740739</v>
       </c>
-      <c r="G89" s="310">
+      <c r="G89" s="302">
         <v>1</v>
       </c>
-      <c r="H89" s="310">
+      <c r="H89" s="302">
         <v>55.000999999999998</v>
       </c>
-      <c r="I89" s="310">
+      <c r="I89" s="302">
         <v>8.2515110000000007</v>
       </c>
-      <c r="J89" s="310">
+      <c r="J89" s="302">
         <v>1.7680549999999999</v>
       </c>
-      <c r="K89" s="310">
+      <c r="K89" s="302">
         <v>2.525312</v>
       </c>
-      <c r="L89" s="310">
+      <c r="L89" s="302">
         <v>170.40522000000001</v>
       </c>
-      <c r="M89" s="310">
+      <c r="M89" s="302">
         <v>68.997125999999994</v>
       </c>
-      <c r="N89" s="310">
+      <c r="N89" s="302">
         <v>2421.3508320000001</v>
       </c>
-      <c r="O89" s="310">
+      <c r="O89" s="302">
         <v>2421.3508320000001</v>
       </c>
-      <c r="P89" s="310">
+      <c r="P89" s="302">
         <v>218.185731</v>
       </c>
-      <c r="Q89" s="310" t="s">
+      <c r="Q89" s="302" t="s">
         <v>100</v>
       </c>
-      <c r="R89" s="312">
+      <c r="R89" s="304">
         <f t="shared" si="45"/>
         <v>45449</v>
       </c>
-      <c r="S89" s="313">
+      <c r="S89" s="305">
         <f t="shared" si="46"/>
         <v>0.62511574073869269</v>
       </c>
-      <c r="T89" s="314">
+      <c r="T89" s="306">
         <f t="shared" si="47"/>
         <v>45449.625115740739</v>
       </c>
-      <c r="U89" s="315" t="str">
+      <c r="U89" s="307" t="str">
         <f t="shared" si="48"/>
         <v>DIT_03_SL2</v>
       </c>
-      <c r="V89" s="315">
+      <c r="V89" s="307">
         <f t="shared" si="49"/>
         <v>1.5</v>
       </c>
-      <c r="W89" s="315">
+      <c r="W89" s="307">
         <f t="shared" si="50"/>
         <v>2421.3508320000001</v>
       </c>
-      <c r="X89" s="316">
+      <c r="X89" s="308">
         <f t="shared" si="51"/>
         <v>3.2347002563934582</v>
       </c>
-      <c r="Y89" s="317">
+      <c r="Y89" s="309">
         <f t="shared" si="52"/>
-        <v>1.2638899495442197</v>
-      </c>
-      <c r="Z89" s="318">
+        <v>3.2380622417398341</v>
+      </c>
+      <c r="Z89" s="310">
         <f t="shared" si="53"/>
-        <v>255.88717569083008</v>
-      </c>
-      <c r="AA89" s="319">
+        <v>327.37640941145008</v>
+      </c>
+      <c r="AA89" s="311">
         <f t="shared" si="54"/>
-        <v>170.59145046055338</v>
-      </c>
-      <c r="AB89" s="320">
+        <v>218.2509396076334</v>
+      </c>
+      <c r="AB89" s="312">
         <v>22</v>
       </c>
-      <c r="AC89" s="321">
+      <c r="AC89" s="313">
         <v>3.3</v>
       </c>
-      <c r="AD89" s="322">
+      <c r="AD89" s="314">
         <f t="shared" si="55"/>
         <v>1.0002738416552892</v>
       </c>
-      <c r="AE89" s="323">
+      <c r="AE89" s="315">
         <f t="shared" si="56"/>
-        <v>170.54474820440419</v>
-      </c>
-      <c r="AF89" s="324">
+        <v>218.19118977105697</v>
+      </c>
+      <c r="AF89" s="316">
         <v>0</v>
       </c>
-      <c r="AG89" s="325">
+      <c r="AG89" s="317">
         <v>250</v>
       </c>
-      <c r="AH89" s="326">
+      <c r="AH89" s="318">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AI89" s="323">
+      <c r="AI89" s="315">
         <f t="shared" si="58"/>
-        <v>170.54474820440419</v>
-      </c>
-      <c r="AJ89" s="327"/>
-      <c r="AK89" s="328"/>
-      <c r="AL89" s="328"/>
-      <c r="AM89" s="327"/>
-      <c r="AN89" s="328"/>
-      <c r="AO89" s="328"/>
-      <c r="AP89" s="327"/>
-    </row>
-    <row r="90" spans="1:43" s="332" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="310" t="s">
+        <v>218.19118977105697</v>
+      </c>
+      <c r="AJ89" s="319"/>
+      <c r="AK89" s="320"/>
+      <c r="AL89" s="320"/>
+      <c r="AM89" s="319"/>
+      <c r="AN89" s="320"/>
+      <c r="AO89" s="320"/>
+      <c r="AP89" s="319"/>
+    </row>
+    <row r="90" spans="1:43" s="324" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="302" t="s">
         <v>148</v>
       </c>
-      <c r="B90" s="310" t="s">
+      <c r="B90" s="302" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="310" t="s">
-        <v>285</v>
-      </c>
-      <c r="D90" s="310" t="s">
+      <c r="C90" s="302" t="s">
+        <v>259</v>
+      </c>
+      <c r="D90" s="302" t="s">
         <v>138</v>
       </c>
-      <c r="E90" s="310">
+      <c r="E90" s="302">
         <v>1.5</v>
       </c>
-      <c r="F90" s="311">
+      <c r="F90" s="303">
         <v>45449.645937499998</v>
       </c>
-      <c r="G90" s="310">
+      <c r="G90" s="302">
         <v>1</v>
       </c>
-      <c r="H90" s="310">
+      <c r="H90" s="302">
         <v>55.000999999999998</v>
       </c>
-      <c r="I90" s="310">
+      <c r="I90" s="302">
         <v>8.3264899999999997</v>
       </c>
-      <c r="J90" s="310">
+      <c r="J90" s="302">
         <v>1.8516140000000001</v>
       </c>
-      <c r="K90" s="310">
+      <c r="K90" s="302">
         <v>2.6173109999999999</v>
       </c>
-      <c r="L90" s="310">
+      <c r="L90" s="302">
         <v>179.22900000000001</v>
       </c>
-      <c r="M90" s="310">
+      <c r="M90" s="302">
         <v>67.997136999999995</v>
       </c>
-      <c r="N90" s="310">
+      <c r="N90" s="302">
         <v>2481.479597</v>
       </c>
-      <c r="O90" s="310">
+      <c r="O90" s="302">
         <v>2481.479597</v>
       </c>
-      <c r="P90" s="310">
+      <c r="P90" s="302">
         <v>223.67306099999999</v>
       </c>
-      <c r="Q90" s="310" t="s">
+      <c r="Q90" s="302" t="s">
         <v>100</v>
       </c>
-      <c r="R90" s="329">
+      <c r="R90" s="321">
         <f t="shared" si="45"/>
         <v>45449</v>
       </c>
-      <c r="S90" s="330">
+      <c r="S90" s="322">
         <f t="shared" si="46"/>
         <v>0.64593749999767169</v>
       </c>
-      <c r="T90" s="331">
+      <c r="T90" s="323">
         <f t="shared" si="47"/>
         <v>45449.645937499998</v>
       </c>
-      <c r="U90" s="332" t="str">
+      <c r="U90" s="324" t="str">
         <f t="shared" si="48"/>
         <v>DIT_03_SL3</v>
       </c>
-      <c r="V90" s="332">
+      <c r="V90" s="324">
         <f t="shared" si="49"/>
         <v>1.5</v>
       </c>
-      <c r="W90" s="332">
+      <c r="W90" s="324">
         <f t="shared" si="50"/>
         <v>2481.479597</v>
       </c>
-      <c r="X90" s="333">
+      <c r="X90" s="325">
         <f t="shared" si="51"/>
         <v>3.3159858936900366</v>
       </c>
-      <c r="Y90" s="334">
+      <c r="Y90" s="326">
         <f t="shared" si="52"/>
-        <v>0.6830039552808912</v>
-      </c>
-      <c r="Z90" s="335">
+        <v>3.3205211965957009</v>
+      </c>
+      <c r="Z90" s="327">
         <f t="shared" si="53"/>
-        <v>138.28098970604125</v>
-      </c>
-      <c r="AA90" s="336">
+        <v>335.71322153833177</v>
+      </c>
+      <c r="AA90" s="328">
         <f t="shared" si="54"/>
-        <v>92.187326470694174</v>
-      </c>
-      <c r="AB90" s="337">
+        <v>223.80881435888784</v>
+      </c>
+      <c r="AB90" s="329">
         <v>22</v>
       </c>
-      <c r="AC90" s="338">
+      <c r="AC90" s="330">
         <v>3.3</v>
       </c>
-      <c r="AD90" s="339">
+      <c r="AD90" s="331">
         <f t="shared" si="55"/>
         <v>1.0002738416552892</v>
       </c>
-      <c r="AE90" s="340">
+      <c r="AE90" s="332">
         <f t="shared" si="56"/>
-        <v>92.162088651782852</v>
-      </c>
-      <c r="AF90" s="341">
+        <v>223.7475429613564</v>
+      </c>
+      <c r="AF90" s="333">
         <v>0</v>
       </c>
-      <c r="AG90" s="342">
+      <c r="AG90" s="334">
         <v>250</v>
       </c>
-      <c r="AH90" s="343">
+      <c r="AH90" s="335">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AI90" s="340">
+      <c r="AI90" s="332">
         <f t="shared" si="58"/>
-        <v>92.162088651782852</v>
-      </c>
-      <c r="AJ90" s="344"/>
-      <c r="AK90" s="345"/>
-      <c r="AL90" s="345"/>
-      <c r="AM90" s="344"/>
-      <c r="AN90" s="345"/>
-      <c r="AO90" s="345"/>
-      <c r="AP90" s="344"/>
+        <v>223.7475429613564</v>
+      </c>
+      <c r="AJ90" s="336"/>
+      <c r="AK90" s="337"/>
+      <c r="AL90" s="337"/>
+      <c r="AM90" s="336"/>
+      <c r="AN90" s="337"/>
+      <c r="AO90" s="337"/>
+      <c r="AP90" s="336"/>
     </row>
     <row r="91" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="R91" s="100"/>
@@ -40167,10 +40008,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -40203,422 +40044,116 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="136">
-        <v>1980.7339245298947</v>
-      </c>
-      <c r="B2" s="136"/>
+        <v>186.82675992447702</v>
+      </c>
+      <c r="B2" s="136">
+        <v>6.4784521727113598</v>
+      </c>
       <c r="C2" s="144"/>
       <c r="D2" s="145">
-        <v>1980.7339245298947</v>
-      </c>
-      <c r="E2" s="144"/>
+        <v>186.82675992447702</v>
+      </c>
+      <c r="E2" s="144">
+        <v>6.4784521727113598</v>
+      </c>
       <c r="F2" s="144"/>
       <c r="G2" s="145" t="s">
-        <v>152</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="136">
-        <v>1977.6536602566939</v>
-      </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145">
-        <v>1977.6536602566939</v>
-      </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="145" t="s">
-        <v>153</v>
+      <c r="A3" s="262">
+        <v>218.53934009605439</v>
+      </c>
+      <c r="B3" s="263">
+        <v>11.613935507499416</v>
+      </c>
+      <c r="C3" s="263"/>
+      <c r="D3" s="262">
+        <v>218.53934009605439</v>
+      </c>
+      <c r="E3" s="265">
+        <v>11.613935507499416</v>
+      </c>
+      <c r="F3" s="263"/>
+      <c r="G3" s="262" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="266">
-        <v>3248.6638475145332</v>
-      </c>
-      <c r="B4" s="267"/>
-      <c r="C4" s="267"/>
-      <c r="D4" s="266">
-        <v>3248.6638475145332</v>
-      </c>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="266" t="s">
-        <v>154</v>
+      <c r="A4" s="182">
+        <v>167.22869133390037</v>
+      </c>
+      <c r="B4" s="183">
+        <v>9.2379220567050684</v>
+      </c>
+      <c r="C4" s="183"/>
+      <c r="D4" s="182">
+        <v>167.22869133390037</v>
+      </c>
+      <c r="E4" s="183">
+        <v>9.2379220567050684</v>
+      </c>
+      <c r="F4" s="183"/>
+      <c r="G4" s="182" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="268">
-        <v>3239.1077312604743</v>
-      </c>
-      <c r="B5" s="251"/>
-      <c r="C5" s="251"/>
-      <c r="D5" s="266">
-        <v>3239.1077312604743</v>
-      </c>
-      <c r="E5" s="267"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251" t="s">
-        <v>155</v>
+      <c r="A5" s="283">
+        <v>148.12450986729584</v>
+      </c>
+      <c r="B5" s="284">
+        <v>1.7518833604662676</v>
+      </c>
+      <c r="C5" s="284"/>
+      <c r="D5" s="283">
+        <v>148.12450986729584</v>
+      </c>
+      <c r="E5" s="284">
+        <v>1.7518833604662676</v>
+      </c>
+      <c r="F5" s="284"/>
+      <c r="G5" s="283" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="182">
-        <v>217.96092143153126</v>
-      </c>
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="182">
-        <v>217.96092143153126</v>
-      </c>
-      <c r="E6" s="184"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="182" t="s">
-        <v>156</v>
+      <c r="A6" s="235">
+        <v>184.95109480788153</v>
+      </c>
+      <c r="B6" s="236">
+        <v>5.558119739570607</v>
+      </c>
+      <c r="C6" s="236"/>
+      <c r="D6" s="235">
+        <v>184.95109480788153</v>
+      </c>
+      <c r="E6" s="236">
+        <v>5.558119739570607</v>
+      </c>
+      <c r="F6" s="236"/>
+      <c r="G6" s="235" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="200">
-        <v>212.39694176637377</v>
-      </c>
-      <c r="B7" s="201"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="200">
-        <v>212.39694176637377</v>
-      </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="200" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="182">
-        <v>300.59290337324353</v>
-      </c>
-      <c r="B8" s="183"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="182">
-        <v>300.59290337324353</v>
-      </c>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="182" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="182">
-        <v>300.09046695012364</v>
-      </c>
-      <c r="B9" s="183"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="182">
-        <v>300.09046695012364</v>
-      </c>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="182" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="219">
-        <v>137.90736745075583</v>
-      </c>
-      <c r="B10" s="220"/>
-      <c r="C10" s="220"/>
-      <c r="D10" s="219">
-        <v>137.90736745075583</v>
-      </c>
-      <c r="E10" s="220"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="219" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="236">
-        <v>134.57506505756197</v>
-      </c>
-      <c r="B11" s="237"/>
-      <c r="C11" s="237"/>
-      <c r="D11" s="236">
-        <v>134.57506505756197</v>
-      </c>
-      <c r="E11" s="237"/>
-      <c r="F11" s="237"/>
-      <c r="G11" s="236" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="219">
-        <v>221.75915440538949</v>
-      </c>
-      <c r="B12" s="220"/>
-      <c r="C12" s="220"/>
-      <c r="D12" s="219">
-        <v>221.75915440538949</v>
-      </c>
-      <c r="E12" s="220"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="219" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="219">
-        <v>218.69635308306192</v>
-      </c>
-      <c r="B13" s="220"/>
-      <c r="C13" s="220"/>
-      <c r="D13" s="219">
-        <v>218.69635308306192</v>
-      </c>
-      <c r="E13" s="220"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="219" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="270">
-        <v>244.68624593619265</v>
-      </c>
-      <c r="B14" s="271"/>
-      <c r="C14" s="271"/>
-      <c r="D14" s="270">
-        <v>244.68624593619265</v>
-      </c>
-      <c r="E14" s="271"/>
-      <c r="F14" s="271"/>
-      <c r="G14" s="270" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="239">
-        <v>245.36847550345183</v>
-      </c>
-      <c r="B15" s="240"/>
-      <c r="C15" s="240"/>
-      <c r="D15" s="239">
-        <v>245.36847550345183</v>
-      </c>
-      <c r="E15" s="240"/>
-      <c r="F15" s="240"/>
-      <c r="G15" s="239" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="270">
-        <v>270.95306667246899</v>
-      </c>
-      <c r="B16" s="271"/>
-      <c r="C16" s="271"/>
-      <c r="D16" s="270">
-        <v>270.95306667246899</v>
-      </c>
-      <c r="E16" s="271"/>
-      <c r="F16" s="271"/>
-      <c r="G16" s="270" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="270">
-        <v>273.05691054901365</v>
-      </c>
-      <c r="B17" s="271"/>
-      <c r="C17" s="271"/>
-      <c r="D17" s="270">
-        <v>273.05691054901365</v>
-      </c>
-      <c r="E17" s="271"/>
-      <c r="F17" s="271"/>
-      <c r="G17" s="270" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="200">
-        <v>205.33402312210902</v>
-      </c>
-      <c r="B18" s="201"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="200">
-        <v>205.33402312210902</v>
-      </c>
-      <c r="E18" s="201"/>
-      <c r="F18" s="201"/>
-      <c r="G18" s="200" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="182">
-        <v>301.82470263579529</v>
-      </c>
-      <c r="B19" s="183"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="182">
-        <v>301.82470263579529</v>
-      </c>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="182" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="236">
-        <v>188.61454421146937</v>
-      </c>
-      <c r="B20" s="237"/>
-      <c r="C20" s="237"/>
-      <c r="D20" s="236">
-        <v>188.61454421146937</v>
-      </c>
-      <c r="E20" s="237"/>
-      <c r="F20" s="237"/>
-      <c r="G20" s="236" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="219">
-        <v>223.85525651284553</v>
-      </c>
-      <c r="B21" s="220"/>
-      <c r="C21" s="220"/>
-      <c r="D21" s="219">
-        <v>223.85525651284553</v>
-      </c>
-      <c r="E21" s="220"/>
-      <c r="F21" s="220"/>
-      <c r="G21" s="219" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="239">
-        <v>191.7043355327865</v>
-      </c>
-      <c r="B22" s="240"/>
-      <c r="C22" s="240"/>
-      <c r="D22" s="239">
-        <v>191.7043355327865</v>
-      </c>
-      <c r="E22" s="240"/>
-      <c r="F22" s="240"/>
-      <c r="G22" s="239" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="270">
-        <v>273.9986544399278</v>
-      </c>
-      <c r="B23" s="271"/>
-      <c r="C23" s="271"/>
-      <c r="D23" s="270">
-        <v>273.9986544399278</v>
-      </c>
-      <c r="E23" s="271"/>
-      <c r="F23" s="271"/>
-      <c r="G23" s="270" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="200">
-        <v>207.06259183083361</v>
-      </c>
-      <c r="B24" s="201"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="200">
-        <v>207.06259183083361</v>
-      </c>
-      <c r="E24" s="201"/>
-      <c r="F24" s="201"/>
-      <c r="G24" s="200" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="182">
-        <v>301.40743003575045</v>
-      </c>
-      <c r="B25" s="183"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="182">
-        <v>301.40743003575045</v>
-      </c>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="182" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="236">
-        <v>189.60854491243859</v>
-      </c>
-      <c r="B26" s="237"/>
-      <c r="C26" s="237"/>
-      <c r="D26" s="236">
-        <v>189.60854491243859</v>
-      </c>
-      <c r="E26" s="237"/>
-      <c r="F26" s="237"/>
-      <c r="G26" s="236" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="219">
-        <v>223.85437075111091</v>
-      </c>
-      <c r="B27" s="220"/>
-      <c r="C27" s="220"/>
-      <c r="D27" s="219">
-        <v>223.85437075111091</v>
-      </c>
-      <c r="E27" s="220"/>
-      <c r="F27" s="220"/>
-      <c r="G27" s="219" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="238">
-        <v>236.68605051241477</v>
-      </c>
-      <c r="B28" s="238"/>
-      <c r="C28" s="238"/>
-      <c r="D28" s="238">
-        <v>236.68605051241477</v>
-      </c>
-      <c r="E28" s="238"/>
-      <c r="F28" s="238"/>
-      <c r="G28" s="238" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="269">
-        <v>283.56884958959819</v>
-      </c>
-      <c r="B29" s="269"/>
-      <c r="C29" s="269"/>
-      <c r="D29" s="269">
-        <v>283.56884958959819</v>
-      </c>
-      <c r="E29" s="269"/>
-      <c r="F29" s="269"/>
-      <c r="G29" s="269" t="s">
-        <v>169</v>
+      <c r="A7" s="319">
+        <v>216.29860408318271</v>
+      </c>
+      <c r="B7" s="320">
+        <v>5.8901551405441328</v>
+      </c>
+      <c r="C7" s="320"/>
+      <c r="D7" s="319">
+        <v>216.29860408318271</v>
+      </c>
+      <c r="E7" s="320">
+        <v>5.8901551405441328</v>
+      </c>
+      <c r="F7" s="320"/>
+      <c r="G7" s="319" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
